--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14706F-BF2F-E14C-831C-4D5D6290CBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A707B63-2285-8341-AADD-EB2C5402B4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28380" yWindow="500" windowWidth="22800" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -646,7 +646,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +685,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,10 +906,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -919,19 +921,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,6 +962,18 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,18 +986,25 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="12" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="10" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,7 +1097,7 @@
           <c:x val="7.932338308457712E-2"/>
           <c:y val="0.12583290202955646"/>
           <c:w val="0.87158872305140966"/>
-          <c:h val="0.75197121738212847"/>
+          <c:h val="0.68839147225234465"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1671,6 +1679,7 @@
         <c:axId val="248270543"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1704,7 +1713,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -2653,10 +2662,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO79" sqref="AO79"/>
+      <selection pane="bottomRight" activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2778,19 +2787,19 @@
       <c r="AK1" s="8">
         <v>2022</v>
       </c>
-      <c r="AL1" s="27">
+      <c r="AL1" s="25">
         <v>2023</v>
       </c>
-      <c r="AM1" s="27">
+      <c r="AM1" s="25">
         <v>2024</v>
       </c>
-      <c r="AN1" s="27">
+      <c r="AN1" s="25">
         <v>2025</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AO1" s="25">
         <v>2026</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AP1" s="25">
         <v>2027</v>
       </c>
     </row>
@@ -3030,19 +3039,19 @@
       <c r="AK3" s="1">
         <v>19698000000</v>
       </c>
-      <c r="AL3" s="28">
+      <c r="AL3" s="26">
         <v>20678000000</v>
       </c>
-      <c r="AM3" s="28">
+      <c r="AM3" s="26">
         <v>21734000000</v>
       </c>
-      <c r="AN3" s="28">
+      <c r="AN3" s="26">
         <v>23201000000</v>
       </c>
-      <c r="AO3" s="28">
+      <c r="AO3" s="26">
         <v>24617000000</v>
       </c>
-      <c r="AP3" s="28">
+      <c r="AP3" s="26">
         <v>25905000000</v>
       </c>
       <c r="AQ3" s="18" t="s">
@@ -4763,19 +4772,19 @@
       <c r="AK16" s="1">
         <v>14232000000</v>
       </c>
-      <c r="AQ16" s="29">
+      <c r="AQ16" s="27">
         <f>(AK35+AJ35+AI35+AH35+AG35)/5</f>
         <v>-1.2439682651333278E-2</v>
       </c>
-      <c r="AR16" s="30">
+      <c r="AR16" s="28">
         <f>AS101/AK3</f>
         <v>3.1209259823332318</v>
       </c>
-      <c r="AS16" s="30">
+      <c r="AS16" s="28">
         <f>AS101/AK28</f>
         <v>27.469168900804288</v>
       </c>
-      <c r="AT16" s="31">
+      <c r="AT16" s="29">
         <f>AS101/AK106</f>
         <v>31.54232939969215</v>
       </c>
@@ -5121,10 +5130,7 @@
       <c r="AK19" s="10">
         <v>5332000000</v>
       </c>
-      <c r="AL19" s="32">
-        <v>5900000000</v>
-      </c>
-      <c r="AQ19" s="66">
+      <c r="AQ19" s="49">
         <f>AK40-AK56-AK61</f>
         <v>-14633000000</v>
       </c>
@@ -5274,10 +5280,6 @@
         <f t="shared" ref="AK20:AL20" si="8">(AK19/AJ19)-1</f>
         <v>0.13157894736842102</v>
       </c>
-      <c r="AL20" s="16">
-        <f t="shared" si="8"/>
-        <v>0.10652663165791454</v>
-      </c>
     </row>
     <row r="21" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -5391,10 +5393,6 @@
       <c r="AK21" s="2">
         <v>0.2707</v>
       </c>
-      <c r="AL21" s="2">
-        <f>AL19/AL3</f>
-        <v>0.28532740110262117</v>
-      </c>
     </row>
     <row r="22" spans="1:43" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -12503,10 +12501,10 @@
       <c r="AK83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR83" s="60" t="s">
+      <c r="AR83" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="AS83" s="61"/>
+      <c r="AS83" s="54"/>
     </row>
     <row r="84" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12620,10 +12618,10 @@
       <c r="AK84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR84" s="62" t="s">
+      <c r="AR84" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="AS84" s="63"/>
+      <c r="AS84" s="56"/>
     </row>
     <row r="85" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12737,10 +12735,10 @@
       <c r="AK85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR85" s="23" t="s">
+      <c r="AR85" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="AS85" s="24">
+      <c r="AS85" s="58">
         <f>AK17</f>
         <v>378000000</v>
       </c>
@@ -12857,10 +12855,10 @@
       <c r="AK86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR86" s="23" t="s">
+      <c r="AR86" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="AS86" s="24">
+      <c r="AS86" s="58">
         <f>AK56</f>
         <v>414000000</v>
       </c>
@@ -12977,10 +12975,10 @@
       <c r="AK87" s="10">
         <v>4536000000</v>
       </c>
-      <c r="AR87" s="23" t="s">
+      <c r="AR87" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="AS87" s="24">
+      <c r="AS87" s="58">
         <f>AK61</f>
         <v>14570000000</v>
       </c>
@@ -13097,10 +13095,10 @@
       <c r="AK88" s="1">
         <v>0</v>
       </c>
-      <c r="AR88" s="33" t="s">
+      <c r="AR88" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="AS88" s="34">
+      <c r="AS88" s="60">
         <f>AS85/(AS86+AS87)</f>
         <v>2.5226908702616124E-2</v>
       </c>
@@ -13253,10 +13251,10 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AR89" s="23" t="s">
+      <c r="AR89" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="AS89" s="24">
+      <c r="AS89" s="58">
         <f>AK27</f>
         <v>678000000</v>
       </c>
@@ -13373,10 +13371,10 @@
       <c r="AK90" s="1">
         <v>-377000000</v>
       </c>
-      <c r="AR90" s="23" t="s">
+      <c r="AR90" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AS90" s="24">
+      <c r="AS90" s="58">
         <f>AK25</f>
         <v>2918000000</v>
       </c>
@@ -13493,10 +13491,10 @@
       <c r="AK91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR91" s="33" t="s">
+      <c r="AR91" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="AS91" s="34">
+      <c r="AS91" s="60">
         <f>AS89/AS90</f>
         <v>0.23235092529129542</v>
       </c>
@@ -13613,10 +13611,10 @@
       <c r="AK92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR92" s="35" t="s">
+      <c r="AR92" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="AS92" s="36">
+      <c r="AS92" s="62">
         <f>AS88*(1-AS91)</f>
         <v>1.9365413123324234E-2</v>
       </c>
@@ -13733,10 +13731,10 @@
       <c r="AK93" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR93" s="62" t="s">
+      <c r="AR93" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="AS93" s="63"/>
+      <c r="AS93" s="56"/>
     </row>
     <row r="94" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13850,10 +13848,10 @@
       <c r="AK94" s="10">
         <v>-3063000000</v>
       </c>
-      <c r="AR94" s="23" t="s">
+      <c r="AR94" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="AS94" s="37">
+      <c r="AS94" s="63">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -13969,10 +13967,10 @@
       <c r="AK95" s="1">
         <v>-7328000000</v>
       </c>
-      <c r="AR95" s="23" t="s">
+      <c r="AR95" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="AS95" s="38">
+      <c r="AS95" s="66">
         <v>0.73</v>
       </c>
     </row>
@@ -14088,10 +14086,10 @@
       <c r="AK96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR96" s="23" t="s">
+      <c r="AR96" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="AS96" s="37">
+      <c r="AS96" s="63">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14207,10 +14205,10 @@
       <c r="AK97" s="1">
         <v>-1500000000</v>
       </c>
-      <c r="AR97" s="35" t="s">
+      <c r="AR97" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="AS97" s="36">
+      <c r="AS97" s="62">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
         <v>7.237650000000001E-2</v>
       </c>
@@ -14327,10 +14325,10 @@
       <c r="AK98" s="1">
         <v>-1077000000</v>
       </c>
-      <c r="AR98" s="62" t="s">
+      <c r="AR98" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="AS98" s="63"/>
+      <c r="AS98" s="56"/>
     </row>
     <row r="99" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14444,10 +14442,10 @@
       <c r="AK99" s="1">
         <v>8689000000</v>
       </c>
-      <c r="AR99" s="23" t="s">
+      <c r="AR99" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="AS99" s="24">
+      <c r="AS99" s="58">
         <f>AS86+AS87</f>
         <v>14984000000</v>
       </c>
@@ -14564,10 +14562,10 @@
       <c r="AK100" s="10">
         <v>-1216000000</v>
       </c>
-      <c r="AR100" s="33" t="s">
+      <c r="AR100" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="AS100" s="34">
+      <c r="AS100" s="60">
         <f>AS99/AS103</f>
         <v>0.19597174993460634</v>
       </c>
@@ -14684,10 +14682,10 @@
       <c r="AK101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="AR101" s="23" t="s">
+      <c r="AR101" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="AS101" s="39">
+      <c r="AS101" s="67">
         <v>61476000000</v>
       </c>
     </row>
@@ -14803,10 +14801,10 @@
       <c r="AK102" s="10">
         <v>251000000</v>
       </c>
-      <c r="AR102" s="33" t="s">
+      <c r="AR102" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AS102" s="34">
+      <c r="AS102" s="60">
         <f>AS101/AS103</f>
         <v>0.80402825006539369</v>
       </c>
@@ -14923,10 +14921,10 @@
       <c r="AK103" s="1">
         <v>194000000</v>
       </c>
-      <c r="AR103" s="35" t="s">
+      <c r="AR103" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="AS103" s="40">
+      <c r="AS103" s="64">
         <f>AS99+AS101</f>
         <v>76460000000</v>
       </c>
@@ -15043,10 +15041,10 @@
       <c r="AK104" s="11">
         <v>445000000</v>
       </c>
-      <c r="AR104" s="62" t="s">
+      <c r="AR104" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="AS104" s="63"/>
+      <c r="AS104" s="56"/>
     </row>
     <row r="105" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15199,10 +15197,10 @@
       <c r="AO105" s="15"/>
       <c r="AP105" s="15"/>
       <c r="AQ105" s="15"/>
-      <c r="AR105" s="25" t="s">
+      <c r="AR105" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="AS105" s="26">
+      <c r="AS105" s="24">
         <f>(AS100*AS92)+(AS102*AS97)</f>
         <v>6.1987824538842412E-2</v>
       </c>
@@ -15319,33 +15317,33 @@
       <c r="AK106" s="1">
         <v>1949000000</v>
       </c>
-      <c r="AL106" s="41">
+      <c r="AL106" s="30">
         <f>AK106*(1+$AS$106)</f>
         <v>2058795496.3247435</v>
       </c>
-      <c r="AM106" s="41">
+      <c r="AM106" s="30">
         <f t="shared" ref="AM106:AP106" si="29">AL106*(1+$AS$106)</f>
         <v>2174776242.0149035</v>
       </c>
-      <c r="AN106" s="41">
+      <c r="AN106" s="30">
         <f t="shared" si="29"/>
         <v>2297290678.5912437</v>
       </c>
-      <c r="AO106" s="41">
+      <c r="AO106" s="30">
         <f t="shared" si="29"/>
         <v>2426706876.7739697</v>
       </c>
-      <c r="AP106" s="41">
+      <c r="AP106" s="30">
         <f t="shared" si="29"/>
         <v>2563413642.2793908</v>
       </c>
-      <c r="AQ106" s="42" t="s">
+      <c r="AQ106" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="AR106" s="43" t="s">
+      <c r="AR106" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AS106" s="44">
+      <c r="AS106" s="33">
         <f>(SUM(AL4:AP4)/5)</f>
         <v>5.6334272100945881E-2</v>
       </c>
@@ -15388,138 +15386,138 @@
       <c r="AI107" s="13"/>
       <c r="AJ107" s="13"/>
       <c r="AK107" s="13"/>
-      <c r="AL107" s="42"/>
-      <c r="AM107" s="42"/>
-      <c r="AN107" s="42"/>
-      <c r="AO107" s="42"/>
-      <c r="AP107" s="45">
+      <c r="AL107" s="31"/>
+      <c r="AM107" s="31"/>
+      <c r="AN107" s="31"/>
+      <c r="AO107" s="31"/>
+      <c r="AP107" s="34">
         <f>AP106*(1+AS107)/(AS108-AS107)</f>
-        <v>62272383574.104187</v>
-      </c>
-      <c r="AQ107" s="46" t="s">
+        <v>71036861888.893524</v>
+      </c>
+      <c r="AQ107" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="AR107" s="47" t="s">
+      <c r="AR107" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="AS107" s="48">
-        <v>0.02</v>
+      <c r="AS107" s="37">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL108" s="45">
+      <c r="AL108" s="34">
         <f t="shared" ref="AL108:AN108" si="30">AL107+AL106</f>
         <v>2058795496.3247435</v>
       </c>
-      <c r="AM108" s="45">
+      <c r="AM108" s="34">
         <f t="shared" si="30"/>
         <v>2174776242.0149035</v>
       </c>
-      <c r="AN108" s="45">
+      <c r="AN108" s="34">
         <f t="shared" si="30"/>
         <v>2297290678.5912437</v>
       </c>
-      <c r="AO108" s="45">
+      <c r="AO108" s="34">
         <f>AO107+AO106</f>
         <v>2426706876.7739697</v>
       </c>
-      <c r="AP108" s="45">
+      <c r="AP108" s="34">
         <f>AP107+AP106</f>
-        <v>64835797216.383575</v>
-      </c>
-      <c r="AQ108" s="46" t="s">
+        <v>73600275531.172913</v>
+      </c>
+      <c r="AQ108" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AR108" s="49" t="s">
+      <c r="AR108" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="AS108" s="50">
+      <c r="AS108" s="39">
         <f>AS105</f>
         <v>6.1987824538842412E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL109" s="64" t="s">
+      <c r="AL109" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="AM109" s="65"/>
+      <c r="AM109" s="52"/>
     </row>
     <row r="110" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL110" s="51" t="s">
+      <c r="AL110" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="AM110" s="52">
+      <c r="AM110" s="41">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>55690134464.223488</v>
+        <v>62178396520.795525</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL111" s="51" t="s">
+      <c r="AL111" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="AM111" s="52">
+      <c r="AM111" s="41">
         <f>AK40</f>
         <v>351000000</v>
       </c>
     </row>
     <row r="112" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL112" s="51" t="s">
+      <c r="AL112" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="AM112" s="52">
+      <c r="AM112" s="41">
         <f>AS99</f>
         <v>14984000000</v>
       </c>
     </row>
     <row r="113" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL113" s="51" t="s">
+      <c r="AL113" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="AM113" s="52">
+      <c r="AM113" s="41">
         <f>AM110+AM111-AM112</f>
-        <v>41057134464.223488</v>
+        <v>47545396520.795525</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL114" s="51" t="s">
+      <c r="AL114" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="AM114" s="67">
+      <c r="AM114" s="50">
         <f>AK34*(1+(5*AQ16))</f>
         <v>389187658.49848342</v>
       </c>
     </row>
     <row r="115" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL115" s="54" t="s">
+      <c r="AL115" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="AM115" s="55">
+      <c r="AM115" s="44">
         <f>AM113/AM114</f>
-        <v>105.49444096615278</v>
+        <v>122.1657354301249</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL116" s="53" t="s">
+      <c r="AL116" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="AM116" s="56">
+      <c r="AM116" s="45">
         <v>150.62</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL117" s="57" t="s">
+      <c r="AL117" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="AM117" s="58">
+      <c r="AM117" s="47">
         <f>AM115/AM116-1</f>
-        <v>-0.29959871885438338</v>
+        <v>-0.18891425155938857</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL118" s="57" t="s">
+      <c r="AL118" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="AM118" s="59" t="str">
+      <c r="AM118" s="48" t="str">
         <f>IF(AM115&gt;AM116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A707B63-2285-8341-AADD-EB2C5402B4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56718A45-4877-BB4D-AE22-870FA45BD7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28380" yWindow="500" windowWidth="22800" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,24 +968,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,6 +987,24 @@
     </xf>
     <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2662,10 +2662,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM29" sqref="AM29"/>
+      <selection pane="bottomRight" activeCell="AN96" sqref="AN96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4778,15 +4778,15 @@
       </c>
       <c r="AR16" s="28">
         <f>AS101/AK3</f>
-        <v>3.1209259823332318</v>
+        <v>3.226583917148949</v>
       </c>
       <c r="AS16" s="28">
         <f>AS101/AK28</f>
-        <v>27.469168900804288</v>
+        <v>28.399128686327078</v>
       </c>
       <c r="AT16" s="29">
         <f>AS101/AK106</f>
-        <v>31.54232939969215</v>
+        <v>32.610184710107745</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5277,7 +5277,7 @@
         <v>0.18124843319127604</v>
       </c>
       <c r="AK20" s="15">
-        <f t="shared" ref="AK20:AL20" si="8">(AK19/AJ19)-1</f>
+        <f t="shared" ref="AK20" si="8">(AK19/AJ19)-1</f>
         <v>0.13157894736842102</v>
       </c>
     </row>
@@ -12501,10 +12501,10 @@
       <c r="AK83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR83" s="53" t="s">
+      <c r="AR83" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AS83" s="54"/>
+      <c r="AS83" s="65"/>
     </row>
     <row r="84" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12618,10 +12618,10 @@
       <c r="AK84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR84" s="55" t="s">
+      <c r="AR84" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="AS84" s="56"/>
+      <c r="AS84" s="67"/>
     </row>
     <row r="85" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12735,10 +12735,10 @@
       <c r="AK85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR85" s="57" t="s">
+      <c r="AR85" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="AS85" s="58">
+      <c r="AS85" s="52">
         <f>AK17</f>
         <v>378000000</v>
       </c>
@@ -12855,10 +12855,10 @@
       <c r="AK86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR86" s="57" t="s">
+      <c r="AR86" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="AS86" s="58">
+      <c r="AS86" s="52">
         <f>AK56</f>
         <v>414000000</v>
       </c>
@@ -12975,10 +12975,10 @@
       <c r="AK87" s="10">
         <v>4536000000</v>
       </c>
-      <c r="AR87" s="57" t="s">
+      <c r="AR87" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="AS87" s="58">
+      <c r="AS87" s="52">
         <f>AK61</f>
         <v>14570000000</v>
       </c>
@@ -13095,10 +13095,10 @@
       <c r="AK88" s="1">
         <v>0</v>
       </c>
-      <c r="AR88" s="59" t="s">
+      <c r="AR88" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="AS88" s="60">
+      <c r="AS88" s="54">
         <f>AS85/(AS86+AS87)</f>
         <v>2.5226908702616124E-2</v>
       </c>
@@ -13251,10 +13251,10 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AR89" s="57" t="s">
+      <c r="AR89" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="AS89" s="58">
+      <c r="AS89" s="52">
         <f>AK27</f>
         <v>678000000</v>
       </c>
@@ -13371,10 +13371,10 @@
       <c r="AK90" s="1">
         <v>-377000000</v>
       </c>
-      <c r="AR90" s="57" t="s">
+      <c r="AR90" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AS90" s="58">
+      <c r="AS90" s="52">
         <f>AK25</f>
         <v>2918000000</v>
       </c>
@@ -13491,10 +13491,10 @@
       <c r="AK91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR91" s="59" t="s">
+      <c r="AR91" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="AS91" s="60">
+      <c r="AS91" s="54">
         <f>AS89/AS90</f>
         <v>0.23235092529129542</v>
       </c>
@@ -13611,10 +13611,10 @@
       <c r="AK92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR92" s="61" t="s">
+      <c r="AR92" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="AS92" s="62">
+      <c r="AS92" s="56">
         <f>AS88*(1-AS91)</f>
         <v>1.9365413123324234E-2</v>
       </c>
@@ -13731,10 +13731,10 @@
       <c r="AK93" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR93" s="55" t="s">
+      <c r="AR93" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="AS93" s="56"/>
+      <c r="AS93" s="67"/>
     </row>
     <row r="94" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13848,10 +13848,10 @@
       <c r="AK94" s="10">
         <v>-3063000000</v>
       </c>
-      <c r="AR94" s="57" t="s">
+      <c r="AR94" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="AS94" s="63">
+      <c r="AS94" s="57">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -13967,10 +13967,10 @@
       <c r="AK95" s="1">
         <v>-7328000000</v>
       </c>
-      <c r="AR95" s="65" t="s">
+      <c r="AR95" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="AS95" s="66">
+      <c r="AS95" s="60">
         <v>0.73</v>
       </c>
     </row>
@@ -14086,10 +14086,10 @@
       <c r="AK96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR96" s="57" t="s">
+      <c r="AR96" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="AS96" s="63">
+      <c r="AS96" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14205,10 +14205,10 @@
       <c r="AK97" s="1">
         <v>-1500000000</v>
       </c>
-      <c r="AR97" s="61" t="s">
+      <c r="AR97" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="AS97" s="62">
+      <c r="AS97" s="56">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
         <v>7.237650000000001E-2</v>
       </c>
@@ -14325,10 +14325,10 @@
       <c r="AK98" s="1">
         <v>-1077000000</v>
       </c>
-      <c r="AR98" s="55" t="s">
+      <c r="AR98" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="AS98" s="56"/>
+      <c r="AS98" s="67"/>
     </row>
     <row r="99" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14442,10 +14442,10 @@
       <c r="AK99" s="1">
         <v>8689000000</v>
       </c>
-      <c r="AR99" s="57" t="s">
+      <c r="AR99" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AS99" s="58">
+      <c r="AS99" s="52">
         <f>AS86+AS87</f>
         <v>14984000000</v>
       </c>
@@ -14562,12 +14562,12 @@
       <c r="AK100" s="10">
         <v>-1216000000</v>
       </c>
-      <c r="AR100" s="59" t="s">
+      <c r="AR100" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AS100" s="60">
+      <c r="AS100" s="54">
         <f>AS99/AS103</f>
-        <v>0.19597174993460634</v>
+        <v>0.19077873092164946</v>
       </c>
     </row>
     <row r="101" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14682,11 +14682,12 @@
       <c r="AK101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="AR101" s="65" t="s">
+      <c r="AR101" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="AS101" s="67">
-        <v>61476000000</v>
+      <c r="AS101" s="61">
+        <f>AM116*AK34</f>
+        <v>63557250000</v>
       </c>
     </row>
     <row r="102" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14801,12 +14802,12 @@
       <c r="AK102" s="10">
         <v>251000000</v>
       </c>
-      <c r="AR102" s="59" t="s">
+      <c r="AR102" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="AS102" s="60">
+      <c r="AS102" s="54">
         <f>AS101/AS103</f>
-        <v>0.80402825006539369</v>
+        <v>0.80922126907835057</v>
       </c>
     </row>
     <row r="103" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14921,12 +14922,12 @@
       <c r="AK103" s="1">
         <v>194000000</v>
       </c>
-      <c r="AR103" s="61" t="s">
+      <c r="AR103" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="AS103" s="64">
+      <c r="AS103" s="58">
         <f>AS99+AS101</f>
-        <v>76460000000</v>
+        <v>78541250000</v>
       </c>
     </row>
     <row r="104" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15041,10 +15042,10 @@
       <c r="AK104" s="11">
         <v>445000000</v>
       </c>
-      <c r="AR104" s="55" t="s">
+      <c r="AR104" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="AS104" s="56"/>
+      <c r="AS104" s="67"/>
     </row>
     <row r="105" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15202,7 +15203,7 @@
       </c>
       <c r="AS105" s="24">
         <f>(AS100*AS92)+(AS102*AS97)</f>
-        <v>6.1987824538842412E-2</v>
+        <v>6.2263112120890501E-2</v>
       </c>
     </row>
     <row r="106" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15392,7 +15393,7 @@
       <c r="AO107" s="31"/>
       <c r="AP107" s="34">
         <f>AP106*(1+AS107)/(AS108-AS107)</f>
-        <v>71036861888.893524</v>
+        <v>70512064982.981995</v>
       </c>
       <c r="AQ107" s="35" t="s">
         <v>148</v>
@@ -15423,7 +15424,7 @@
       </c>
       <c r="AP108" s="34">
         <f>AP107+AP106</f>
-        <v>73600275531.172913</v>
+        <v>73075478625.261383</v>
       </c>
       <c r="AQ108" s="35" t="s">
         <v>144</v>
@@ -15433,14 +15434,14 @@
       </c>
       <c r="AS108" s="39">
         <f>AS105</f>
-        <v>6.1987824538842412E-2</v>
+        <v>6.2263112120890501E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL109" s="51" t="s">
+      <c r="AL109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AM109" s="52"/>
+      <c r="AM109" s="63"/>
     </row>
     <row r="110" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="AL110" s="40" t="s">
@@ -15448,7 +15449,7 @@
       </c>
       <c r="AM110" s="41">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>62178396520.795525</v>
+        <v>61714864286.226433</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15475,7 +15476,7 @@
       </c>
       <c r="AM113" s="41">
         <f>AM110+AM111-AM112</f>
-        <v>47545396520.795525</v>
+        <v>47081864286.226433</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15493,7 +15494,7 @@
       </c>
       <c r="AM115" s="44">
         <f>AM113/AM114</f>
-        <v>122.1657354301249</v>
+        <v>120.97471042085961</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15501,7 +15502,7 @@
         <v>157</v>
       </c>
       <c r="AM116" s="45">
-        <v>150.62</v>
+        <v>153.15</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15510,7 +15511,7 @@
       </c>
       <c r="AM117" s="47">
         <f>AM115/AM116-1</f>
-        <v>-0.18891425155938857</v>
+        <v>-0.21009003969402806</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56718A45-4877-BB4D-AE22-870FA45BD7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F558E20D-AF2B-F34F-B62D-1F9EA8D69485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28380" yWindow="500" windowWidth="22800" windowHeight="27100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Waste Management</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -864,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -947,14 +981,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -982,11 +1012,6 @@
     <xf numFmtId="10" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,6 +1030,11 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2362,6 +2392,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25xjc&amp;q=XNYS%3aWM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a25xjc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>175.98</v>
+    <v>138.88999999999999</v>
+    <v>0.73040000000000005</v>
+    <v>-0.34</v>
+    <v>-2.075E-3</v>
+    <v>0</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
+    <v>49500</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
+    <v>164.83500000000001</v>
+    <v>Professional &amp; Commercial Services</v>
+    <v>Stock</v>
+    <v>45020.958333344533</v>
+    <v>0</v>
+    <v>162.38</v>
+    <v>66518640216</v>
+    <v>WASTE MANAGEMENT, INC.</v>
+    <v>WASTE MANAGEMENT, INC.</v>
+    <v>163.99</v>
+    <v>30.386500000000002</v>
+    <v>163.87</v>
+    <v>163.53</v>
+    <v>163.53</v>
+    <v>406767200</v>
+    <v>WM</v>
+    <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
+    <v>2514708</v>
+    <v>2013096</v>
+    <v>1995</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2662,10 +3132,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN96" sqref="AN96"/>
+      <selection pane="bottomRight" activeCell="AN102" sqref="AN102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2676,8 +3146,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1987</v>
@@ -3055,21 +3525,21 @@
         <v>25905000000</v>
       </c>
       <c r="AQ3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AS3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AT3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AT3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3475,16 +3945,16 @@
         <v>7404000000</v>
       </c>
       <c r="AQ6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AR6" s="19" t="s">
+      <c r="AS6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AT6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AT6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -3731,7 +4201,7 @@
     </row>
     <row r="9" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3878,16 +4348,16 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AR9" s="19" t="s">
+      <c r="AS9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AT9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AT9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -4245,21 +4715,21 @@
         <v>1938000000</v>
       </c>
       <c r="AQ12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AR12" s="19" t="s">
+      <c r="AS12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AT12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AT12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4648,16 +5118,16 @@
         <v>1938000000</v>
       </c>
       <c r="AQ15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AR15" s="19" t="s">
+      <c r="AS15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AS15" s="19" t="s">
+      <c r="AT15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AT15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -4778,15 +5248,15 @@
       </c>
       <c r="AR16" s="28">
         <f>AS101/AK3</f>
-        <v>3.226583917148949</v>
+        <v>3.3769235565031983</v>
       </c>
       <c r="AS16" s="28">
         <f>AS101/AK28</f>
-        <v>28.399128686327078</v>
+        <v>29.722359345844502</v>
       </c>
       <c r="AT16" s="29">
         <f>AS101/AK106</f>
-        <v>32.610184710107745</v>
+        <v>34.12962555977424</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5015,7 +5485,7 @@
         <v>2038000000</v>
       </c>
       <c r="AQ18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -5130,14 +5600,14 @@
       <c r="AK19" s="10">
         <v>5332000000</v>
       </c>
-      <c r="AQ19" s="49">
+      <c r="AQ19" s="47">
         <f>AK40-AK56-AK61</f>
         <v>-14633000000</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6187,7 +6657,7 @@
     </row>
     <row r="29" spans="1:43" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6898,7 +7368,7 @@
     </row>
     <row r="35" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -12016,7 +12486,7 @@
     </row>
     <row r="80" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AK80" si="21">B79/B3</f>
@@ -12501,10 +12971,10 @@
       <c r="AK83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR83" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS83" s="65"/>
+      <c r="AR83" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS83" s="60"/>
     </row>
     <row r="84" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12618,10 +13088,10 @@
       <c r="AK84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR84" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS84" s="67"/>
+      <c r="AR84" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS84" s="62"/>
     </row>
     <row r="85" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12735,10 +13205,10 @@
       <c r="AK85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR85" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS85" s="52">
+      <c r="AR85" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS85" s="50">
         <f>AK17</f>
         <v>378000000</v>
       </c>
@@ -12855,10 +13325,10 @@
       <c r="AK86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR86" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS86" s="52">
+      <c r="AR86" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS86" s="50">
         <f>AK56</f>
         <v>414000000</v>
       </c>
@@ -12975,10 +13445,10 @@
       <c r="AK87" s="10">
         <v>4536000000</v>
       </c>
-      <c r="AR87" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="AS87" s="52">
+      <c r="AR87" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS87" s="50">
         <f>AK61</f>
         <v>14570000000</v>
       </c>
@@ -13095,17 +13565,17 @@
       <c r="AK88" s="1">
         <v>0</v>
       </c>
-      <c r="AR88" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS88" s="54">
+      <c r="AR88" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS88" s="52">
         <f>AS85/(AS86+AS87)</f>
         <v>2.5226908702616124E-2</v>
       </c>
     </row>
     <row r="89" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AK89" si="22">(-1*B88)/B3</f>
@@ -13251,10 +13721,10 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AR89" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS89" s="52">
+      <c r="AR89" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS89" s="50">
         <f>AK27</f>
         <v>678000000</v>
       </c>
@@ -13371,10 +13841,10 @@
       <c r="AK90" s="1">
         <v>-377000000</v>
       </c>
-      <c r="AR90" s="51" t="s">
+      <c r="AR90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AS90" s="52">
+      <c r="AS90" s="50">
         <f>AK25</f>
         <v>2918000000</v>
       </c>
@@ -13491,10 +13961,10 @@
       <c r="AK91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR91" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS91" s="54">
+      <c r="AR91" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS91" s="52">
         <f>AS89/AS90</f>
         <v>0.23235092529129542</v>
       </c>
@@ -13611,10 +14081,10 @@
       <c r="AK92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR92" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS92" s="56">
+      <c r="AR92" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS92" s="54">
         <f>AS88*(1-AS91)</f>
         <v>1.9365413123324234E-2</v>
       </c>
@@ -13731,10 +14201,10 @@
       <c r="AK93" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR93" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS93" s="67"/>
+      <c r="AR93" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS93" s="62"/>
     </row>
     <row r="94" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13848,10 +14318,10 @@
       <c r="AK94" s="10">
         <v>-3063000000</v>
       </c>
-      <c r="AR94" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="AS94" s="57">
+      <c r="AR94" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS94" s="55">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -13967,11 +14437,12 @@
       <c r="AK95" s="1">
         <v>-7328000000</v>
       </c>
-      <c r="AR95" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS95" s="60">
-        <v>0.73</v>
+      <c r="AR95" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS95" s="64" cm="1">
+        <f t="array" ref="AS95">_FV(A1,"Beta")</f>
+        <v>0.73040000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14086,10 +14557,10 @@
       <c r="AK96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR96" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS96" s="57">
+      <c r="AR96" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14205,12 +14676,12 @@
       <c r="AK97" s="1">
         <v>-1500000000</v>
       </c>
-      <c r="AR97" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS97" s="56">
+      <c r="AR97" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS97" s="54">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
-        <v>7.237650000000001E-2</v>
+        <v>7.2393720000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -14325,10 +14796,10 @@
       <c r="AK98" s="1">
         <v>-1077000000</v>
       </c>
-      <c r="AR98" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS98" s="67"/>
+      <c r="AR98" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS98" s="62"/>
     </row>
     <row r="99" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14442,10 +14913,10 @@
       <c r="AK99" s="1">
         <v>8689000000</v>
       </c>
-      <c r="AR99" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS99" s="52">
+      <c r="AR99" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS99" s="50">
         <f>AS86+AS87</f>
         <v>14984000000</v>
       </c>
@@ -14562,12 +15033,12 @@
       <c r="AK100" s="10">
         <v>-1216000000</v>
       </c>
-      <c r="AR100" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS100" s="54">
+      <c r="AR100" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS100" s="52">
         <f>AS99/AS103</f>
-        <v>0.19077873092164946</v>
+        <v>0.18384680496593842</v>
       </c>
     </row>
     <row r="101" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14682,12 +15153,12 @@
       <c r="AK101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="AR101" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS101" s="61">
-        <f>AM116*AK34</f>
-        <v>63557250000</v>
+      <c r="AR101" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS101" s="41" cm="1">
+        <f t="array" ref="AS101">_FV(A1,"Market cap",TRUE)</f>
+        <v>66518640216</v>
       </c>
     </row>
     <row r="102" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14802,12 +15273,12 @@
       <c r="AK102" s="10">
         <v>251000000</v>
       </c>
-      <c r="AR102" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS102" s="54">
+      <c r="AR102" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS102" s="52">
         <f>AS101/AS103</f>
-        <v>0.80922126907835057</v>
+        <v>0.81615319503406158</v>
       </c>
     </row>
     <row r="103" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14922,12 +15393,12 @@
       <c r="AK103" s="1">
         <v>194000000</v>
       </c>
-      <c r="AR103" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS103" s="58">
+      <c r="AR103" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS103" s="56">
         <f>AS99+AS101</f>
-        <v>78541250000</v>
+        <v>81502640216</v>
       </c>
     </row>
     <row r="104" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15042,14 +15513,14 @@
       <c r="AK104" s="11">
         <v>445000000</v>
       </c>
-      <c r="AR104" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS104" s="67"/>
+      <c r="AR104" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS104" s="62"/>
     </row>
     <row r="105" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -15199,11 +15670,11 @@
       <c r="AP105" s="15"/>
       <c r="AQ105" s="15"/>
       <c r="AR105" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AS105" s="24">
         <f>(AS100*AS92)+(AS102*AS97)</f>
-        <v>6.2263112120890501E-2</v>
+        <v>6.2644635207969868E-2</v>
       </c>
     </row>
     <row r="106" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15339,10 +15810,10 @@
         <v>2563413642.2793908</v>
       </c>
       <c r="AQ106" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR106" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="AR106" s="32" t="s">
-        <v>147</v>
       </c>
       <c r="AS106" s="33">
         <f>(SUM(AL4:AP4)/5)</f>
@@ -15393,13 +15864,13 @@
       <c r="AO107" s="31"/>
       <c r="AP107" s="34">
         <f>AP106*(1+AS107)/(AS108-AS107)</f>
-        <v>70512064982.981995</v>
+        <v>69797435114.475464</v>
       </c>
       <c r="AQ107" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR107" s="36" t="s">
         <v>148</v>
-      </c>
-      <c r="AR107" s="36" t="s">
-        <v>149</v>
       </c>
       <c r="AS107" s="37">
         <v>2.5000000000000001E-2</v>
@@ -15424,37 +15895,37 @@
       </c>
       <c r="AP108" s="34">
         <f>AP107+AP106</f>
-        <v>73075478625.261383</v>
+        <v>72360848756.754852</v>
       </c>
       <c r="AQ108" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AR108" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS108" s="39">
         <f>AS105</f>
-        <v>6.2263112120890501E-2</v>
+        <v>6.2644635207969868E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL109" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM109" s="63"/>
+      <c r="AL109" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM109" s="58"/>
     </row>
     <row r="110" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="AL110" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AM110" s="41">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>61714864286.226433</v>
+        <v>61083667220.228409</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="AL111" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AM111" s="41">
         <f>AK40</f>
@@ -15463,7 +15934,7 @@
     </row>
     <row r="112" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="AL112" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AM112" s="41">
         <f>AS99</f>
@@ -15472,53 +15943,54 @@
     </row>
     <row r="113" spans="38:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AL113" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AM113" s="41">
         <f>AM110+AM111-AM112</f>
-        <v>47081864286.226433</v>
+        <v>46450667220.228409</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AL114" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM114" s="50">
+        <v>154</v>
+      </c>
+      <c r="AM114" s="48">
         <f>AK34*(1+(5*AQ16))</f>
         <v>389187658.49848342</v>
       </c>
     </row>
     <row r="115" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL115" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM115" s="44">
+      <c r="AL115" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM115" s="43">
         <f>AM113/AM114</f>
-        <v>120.97471042085961</v>
+        <v>119.3528782475753</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL116" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM116" s="45">
-        <v>153.15</v>
+      <c r="AL116" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM116" s="65" cm="1">
+        <f t="array" ref="AM116">_FV(A1,"Price")</f>
+        <v>163.53</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL117" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM117" s="47">
+      <c r="AL117" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM117" s="45">
         <f>AM115/AM116-1</f>
-        <v>-0.21009003969402806</v>
+        <v>-0.27014689507995293</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL118" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM118" s="48" t="str">
+      <c r="AL118" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM118" s="46" t="str">
         <f>IF(AM115&gt;AM116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F558E20D-AF2B-F34F-B62D-1F9EA8D69485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935DE96-C324-024C-887A-82293AACDB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1012,6 +1012,11 @@
     <xf numFmtId="10" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,11 +1035,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2515,10 +2515,8 @@
     <v>175.98</v>
     <v>138.88999999999999</v>
     <v>0.73040000000000005</v>
-    <v>-0.34</v>
-    <v>-2.075E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>0.84</v>
+    <v>5.1590000000000004E-3</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -2526,25 +2524,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>164.83500000000001</v>
+    <v>164.76</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45020.958333344533</v>
+    <v>45022.975471376565</v>
     <v>0</v>
-    <v>162.38</v>
-    <v>66518640216</v>
+    <v>162.56</v>
+    <v>66571520000</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>163.99</v>
-    <v>30.386500000000002</v>
-    <v>163.87</v>
-    <v>163.53</v>
-    <v>163.53</v>
+    <v>163.08000000000001</v>
+    <v>30.3476</v>
+    <v>162.82</v>
+    <v>163.66</v>
     <v>406767200</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>2514708</v>
-    <v>2013096</v>
+    <v>4</v>
+    <v>2009135</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2576,8 +2573,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2598,7 +2593,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2615,7 +2609,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2626,16 +2620,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2701,19 +2692,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2758,9 +2743,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2768,9 +2750,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3132,10 +3111,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN102" sqref="AN102"/>
+      <selection pane="bottomRight" activeCell="AL88" sqref="AL88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5248,15 +5227,15 @@
       </c>
       <c r="AR16" s="28">
         <f>AS101/AK3</f>
-        <v>3.3769235565031983</v>
+        <v>3.3796080820387857</v>
       </c>
       <c r="AS16" s="28">
         <f>AS101/AK28</f>
-        <v>29.722359345844502</v>
+        <v>29.745987488829311</v>
       </c>
       <c r="AT16" s="29">
         <f>AS101/AK106</f>
-        <v>34.12962555977424</v>
+        <v>34.156757311441766</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -12971,10 +12950,10 @@
       <c r="AK83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR83" s="59" t="s">
+      <c r="AR83" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="AS83" s="60"/>
+      <c r="AS83" s="63"/>
     </row>
     <row r="84" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13088,10 +13067,10 @@
       <c r="AK84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AR84" s="61" t="s">
+      <c r="AR84" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AS84" s="62"/>
+      <c r="AS84" s="65"/>
     </row>
     <row r="85" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14201,10 +14180,10 @@
       <c r="AK93" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR93" s="61" t="s">
+      <c r="AR93" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="AS93" s="62"/>
+      <c r="AS93" s="65"/>
     </row>
     <row r="94" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14437,10 +14416,10 @@
       <c r="AK95" s="1">
         <v>-7328000000</v>
       </c>
-      <c r="AR95" s="63" t="s">
+      <c r="AR95" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="AS95" s="64" cm="1">
+      <c r="AS95" s="58" cm="1">
         <f t="array" ref="AS95">_FV(A1,"Beta")</f>
         <v>0.73040000000000005</v>
       </c>
@@ -14796,10 +14775,10 @@
       <c r="AK98" s="1">
         <v>-1077000000</v>
       </c>
-      <c r="AR98" s="61" t="s">
+      <c r="AR98" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="AS98" s="62"/>
+      <c r="AS98" s="65"/>
     </row>
     <row r="99" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15038,7 +15017,7 @@
       </c>
       <c r="AS100" s="52">
         <f>AS99/AS103</f>
-        <v>0.18384680496593842</v>
+        <v>0.18372760053519369</v>
       </c>
     </row>
     <row r="101" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15153,12 +15132,12 @@
       <c r="AK101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="AR101" s="63" t="s">
+      <c r="AR101" s="57" t="s">
         <v>141</v>
       </c>
       <c r="AS101" s="41" cm="1">
         <f t="array" ref="AS101">_FV(A1,"Market cap",TRUE)</f>
-        <v>66518640216</v>
+        <v>66571520000</v>
       </c>
     </row>
     <row r="102" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15278,7 +15257,7 @@
       </c>
       <c r="AS102" s="52">
         <f>AS101/AS103</f>
-        <v>0.81615319503406158</v>
+        <v>0.81627239946480634</v>
       </c>
     </row>
     <row r="103" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15398,7 +15377,7 @@
       </c>
       <c r="AS103" s="56">
         <f>AS99+AS101</f>
-        <v>81502640216</v>
+        <v>81555520000</v>
       </c>
     </row>
     <row r="104" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15513,10 +15492,10 @@
       <c r="AK104" s="11">
         <v>445000000</v>
       </c>
-      <c r="AR104" s="61" t="s">
+      <c r="AR104" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="AS104" s="62"/>
+      <c r="AS104" s="65"/>
     </row>
     <row r="105" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15674,7 +15653,7 @@
       </c>
       <c r="AS105" s="24">
         <f>(AS100*AS92)+(AS102*AS97)</f>
-        <v>6.2644635207969868E-2</v>
+        <v>6.265095641710447E-2</v>
       </c>
     </row>
     <row r="106" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15864,7 +15843,7 @@
       <c r="AO107" s="31"/>
       <c r="AP107" s="34">
         <f>AP106*(1+AS107)/(AS108-AS107)</f>
-        <v>69797435114.475464</v>
+        <v>69785716841.51767</v>
       </c>
       <c r="AQ107" s="35" t="s">
         <v>147</v>
@@ -15895,7 +15874,7 @@
       </c>
       <c r="AP108" s="34">
         <f>AP107+AP106</f>
-        <v>72360848756.754852</v>
+        <v>72349130483.797058</v>
       </c>
       <c r="AQ108" s="35" t="s">
         <v>143</v>
@@ -15905,14 +15884,14 @@
       </c>
       <c r="AS108" s="39">
         <f>AS105</f>
-        <v>6.2644635207969868E-2</v>
+        <v>6.265095641710447E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL109" s="57" t="s">
+      <c r="AL109" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="AM109" s="58"/>
+      <c r="AM109" s="61"/>
     </row>
     <row r="110" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="AL110" s="40" t="s">
@@ -15920,7 +15899,7 @@
       </c>
       <c r="AM110" s="41">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>61083667220.228409</v>
+        <v>61073317120.915794</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15947,7 +15926,7 @@
       </c>
       <c r="AM113" s="41">
         <f>AM110+AM111-AM112</f>
-        <v>46450667220.228409</v>
+        <v>46440317120.915794</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15965,16 +15944,16 @@
       </c>
       <c r="AM115" s="43">
         <f>AM113/AM114</f>
-        <v>119.3528782475753</v>
+        <v>119.32628413780176</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AL116" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="AM116" s="65" cm="1">
+      <c r="AM116" s="59" cm="1">
         <f t="array" ref="AM116">_FV(A1,"Price")</f>
-        <v>163.53</v>
+        <v>163.66</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15983,7 +15962,7 @@
       </c>
       <c r="AM117" s="45">
         <f>AM115/AM116-1</f>
-        <v>-0.27014689507995293</v>
+        <v>-0.27088913517168667</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7935DE96-C324-024C-887A-82293AACDB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2C2B93-4A83-5644-A932-57DDF95A2CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2514,9 +2514,11 @@
     <v>Powered by Refinitiv</v>
     <v>175.98</v>
     <v>138.88999999999999</v>
-    <v>0.73040000000000005</v>
-    <v>0.84</v>
-    <v>5.1590000000000004E-3</v>
+    <v>0.72819999999999996</v>
+    <v>-0.36</v>
+    <v>-2.111E-3</v>
+    <v>-0.01</v>
+    <v>-5.876E-5</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -2524,24 +2526,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>164.76</v>
+    <v>170.9</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45022.975471376565</v>
+    <v>45057.967870821092</v>
     <v>0</v>
-    <v>162.56</v>
-    <v>66571520000</v>
+    <v>169.3</v>
+    <v>69236134173</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>163.08000000000001</v>
-    <v>30.3476</v>
-    <v>162.82</v>
-    <v>163.66</v>
-    <v>406767200</v>
+    <v>170.9</v>
+    <v>31.189599999999999</v>
+    <v>170.55</v>
+    <v>170.19</v>
+    <v>170.18</v>
+    <v>406816700</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>4</v>
-    <v>2009135</v>
+    <v>1532790</v>
+    <v>1589567</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2573,6 +2576,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2593,6 +2598,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2609,7 +2615,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2620,13 +2626,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2692,13 +2701,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2743,6 +2758,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2750,6 +2768,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3111,10 +3132,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL88" sqref="AL88"/>
+      <selection pane="bottomRight" activeCell="AO93" sqref="AO93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5227,15 +5248,15 @@
       </c>
       <c r="AR16" s="28">
         <f>AS101/AK3</f>
-        <v>3.3796080820387857</v>
+        <v>3.5148814180627475</v>
       </c>
       <c r="AS16" s="28">
         <f>AS101/AK28</f>
-        <v>29.745987488829311</v>
+        <v>30.936610443699731</v>
       </c>
       <c r="AT16" s="29">
         <f>AS101/AK106</f>
-        <v>34.156757311441766</v>
+        <v>35.523927230887637</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -14421,7 +14442,7 @@
       </c>
       <c r="AS95" s="58" cm="1">
         <f t="array" ref="AS95">_FV(A1,"Beta")</f>
-        <v>0.73040000000000005</v>
+        <v>0.72819999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14660,7 +14681,7 @@
       </c>
       <c r="AS97" s="54">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
-        <v>7.2393720000000009E-2</v>
+        <v>7.2299009999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15017,7 +15038,7 @@
       </c>
       <c r="AS100" s="52">
         <f>AS99/AS103</f>
-        <v>0.18372760053519369</v>
+        <v>0.17791470112385188</v>
       </c>
     </row>
     <row r="101" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15137,7 +15158,7 @@
       </c>
       <c r="AS101" s="41" cm="1">
         <f t="array" ref="AS101">_FV(A1,"Market cap",TRUE)</f>
-        <v>66571520000</v>
+        <v>69236134173</v>
       </c>
     </row>
     <row r="102" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15257,7 +15278,7 @@
       </c>
       <c r="AS102" s="52">
         <f>AS101/AS103</f>
-        <v>0.81627239946480634</v>
+        <v>0.82208529887614812</v>
       </c>
     </row>
     <row r="103" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15377,7 +15398,7 @@
       </c>
       <c r="AS103" s="56">
         <f>AS99+AS101</f>
-        <v>81555520000</v>
+        <v>84220134173</v>
       </c>
     </row>
     <row r="104" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15653,7 +15674,7 @@
       </c>
       <c r="AS105" s="24">
         <f>(AS100*AS92)+(AS102*AS97)</f>
-        <v>6.265095641710447E-2</v>
+        <v>6.2881344932275776E-2</v>
       </c>
     </row>
     <row r="106" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15843,7 +15864,7 @@
       <c r="AO107" s="31"/>
       <c r="AP107" s="34">
         <f>AP106*(1+AS107)/(AS108-AS107)</f>
-        <v>69785716841.51767</v>
+        <v>69361290842.070541</v>
       </c>
       <c r="AQ107" s="35" t="s">
         <v>147</v>
@@ -15874,7 +15895,7 @@
       </c>
       <c r="AP108" s="34">
         <f>AP107+AP106</f>
-        <v>72349130483.797058</v>
+        <v>71924704484.34993</v>
       </c>
       <c r="AQ108" s="35" t="s">
         <v>143</v>
@@ -15884,7 +15905,7 @@
       </c>
       <c r="AS108" s="39">
         <f>AS105</f>
-        <v>6.265095641710447E-2</v>
+        <v>6.2881344932275776E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15899,7 +15920,7 @@
       </c>
       <c r="AM110" s="41">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>61073317120.915794</v>
+        <v>60698446747.925774</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15926,7 +15947,7 @@
       </c>
       <c r="AM113" s="41">
         <f>AM110+AM111-AM112</f>
-        <v>46440317120.915794</v>
+        <v>46065446747.925774</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15944,7 +15965,7 @@
       </c>
       <c r="AM115" s="43">
         <f>AM113/AM114</f>
-        <v>119.32628413780176</v>
+        <v>118.36307175219761</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15953,7 +15974,7 @@
       </c>
       <c r="AM116" s="59" cm="1">
         <f t="array" ref="AM116">_FV(A1,"Price")</f>
-        <v>163.66</v>
+        <v>170.19</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15962,7 +15983,7 @@
       </c>
       <c r="AM117" s="45">
         <f>AM115/AM116-1</f>
-        <v>-0.27088913517168667</v>
+        <v>-0.30452393353194895</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2C2B93-4A83-5644-A932-57DDF95A2CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4277EA-E327-DA42-A58C-4D6A652F6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2514,11 +2514,11 @@
     <v>Powered by Refinitiv</v>
     <v>175.98</v>
     <v>138.88999999999999</v>
-    <v>0.72819999999999996</v>
-    <v>-0.36</v>
-    <v>-2.111E-3</v>
-    <v>-0.01</v>
-    <v>-5.876E-5</v>
+    <v>0.73070000000000002</v>
+    <v>-0.22</v>
+    <v>-1.3339999999999999E-3</v>
+    <v>2.15</v>
+    <v>1.3051E-2</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -2526,25 +2526,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>170.9</v>
+    <v>166.7</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45057.967870821092</v>
+    <v>45082.911387453125</v>
     <v>0</v>
-    <v>169.3</v>
-    <v>69236134173</v>
+    <v>164.67</v>
+    <v>67018983158</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>170.9</v>
-    <v>31.189599999999999</v>
-    <v>170.55</v>
-    <v>170.19</v>
-    <v>170.18</v>
+    <v>165.12</v>
+    <v>30.167300000000001</v>
+    <v>164.96</v>
+    <v>164.74</v>
+    <v>166.89</v>
     <v>406816700</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>1532790</v>
-    <v>1589567</v>
+    <v>1457336</v>
+    <v>1417855</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -3132,10 +3132,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO93" sqref="AO93"/>
+      <selection pane="bottomRight" activeCell="AO28" sqref="AO28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5248,15 +5248,15 @@
       </c>
       <c r="AR16" s="28">
         <f>AS101/AK3</f>
-        <v>3.5148814180627475</v>
+        <v>3.4023242541374761</v>
       </c>
       <c r="AS16" s="28">
         <f>AS101/AK28</f>
-        <v>30.936610443699731</v>
+        <v>29.945926344057195</v>
       </c>
       <c r="AT16" s="29">
         <f>AS101/AK106</f>
-        <v>35.523927230887637</v>
+        <v>34.386343334017447</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
@@ -14442,7 +14442,7 @@
       </c>
       <c r="AS95" s="58" cm="1">
         <f t="array" ref="AS95">_FV(A1,"Beta")</f>
-        <v>0.72819999999999996</v>
+        <v>0.73070000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14681,7 +14681,7 @@
       </c>
       <c r="AS97" s="54">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
-        <v>7.2299009999999997E-2</v>
+        <v>7.2406634999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15038,7 +15038,7 @@
       </c>
       <c r="AS100" s="52">
         <f>AS99/AS103</f>
-        <v>0.17791470112385188</v>
+        <v>0.18272505978385495</v>
       </c>
     </row>
     <row r="101" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15158,7 +15158,7 @@
       </c>
       <c r="AS101" s="41" cm="1">
         <f t="array" ref="AS101">_FV(A1,"Market cap",TRUE)</f>
-        <v>69236134173</v>
+        <v>67018983158</v>
       </c>
     </row>
     <row r="102" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15278,7 +15278,7 @@
       </c>
       <c r="AS102" s="52">
         <f>AS101/AS103</f>
-        <v>0.82208529887614812</v>
+        <v>0.81727494021614511</v>
       </c>
     </row>
     <row r="103" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15398,7 +15398,7 @@
       </c>
       <c r="AS103" s="56">
         <f>AS99+AS101</f>
-        <v>84220134173</v>
+        <v>82002983158</v>
       </c>
     </row>
     <row r="104" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15674,7 +15674,7 @@
       </c>
       <c r="AS105" s="24">
         <f>(AS100*AS92)+(AS102*AS97)</f>
-        <v>6.2881344932275776E-2</v>
+        <v>6.2714674561575715E-2</v>
       </c>
     </row>
     <row r="106" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15864,7 +15864,7 @@
       <c r="AO107" s="31"/>
       <c r="AP107" s="34">
         <f>AP106*(1+AS107)/(AS108-AS107)</f>
-        <v>69361290842.070541</v>
+        <v>69667815349.872101</v>
       </c>
       <c r="AQ107" s="35" t="s">
         <v>147</v>
@@ -15895,7 +15895,7 @@
       </c>
       <c r="AP108" s="34">
         <f>AP107+AP106</f>
-        <v>71924704484.34993</v>
+        <v>72231228992.151489</v>
       </c>
       <c r="AQ108" s="35" t="s">
         <v>143</v>
@@ -15905,7 +15905,7 @@
       </c>
       <c r="AS108" s="39">
         <f>AS105</f>
-        <v>6.2881344932275776E-2</v>
+        <v>6.2714674561575715E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15920,7 +15920,7 @@
       </c>
       <c r="AM110" s="41">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>60698446747.925774</v>
+        <v>60969181410.72068</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15947,7 +15947,7 @@
       </c>
       <c r="AM113" s="41">
         <f>AM110+AM111-AM112</f>
-        <v>46065446747.925774</v>
+        <v>46336181410.72068</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15965,7 +15965,7 @@
       </c>
       <c r="AM115" s="43">
         <f>AM113/AM114</f>
-        <v>118.36307175219761</v>
+        <v>119.05871216340546</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15974,7 +15974,7 @@
       </c>
       <c r="AM116" s="59" cm="1">
         <f t="array" ref="AM116">_FV(A1,"Price")</f>
-        <v>170.19</v>
+        <v>164.74</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="AM117" s="45">
         <f>AM115/AM116-1</f>
-        <v>-0.30452393353194895</v>
+        <v>-0.2772932368374077</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4277EA-E327-DA42-A58C-4D6A652F6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0361B-AA0C-DE4E-B5BD-0BE096D79FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -507,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +547,46 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -893,12 +919,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1017,6 +1052,31 @@
     </xf>
     <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1085,12 +1145,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>WM</a:t>
+              <a:t>Waste Management</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36274961152244034"/>
+          <c:y val="2.0421186981493301E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1125,9 +1192,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="7.932338308457712E-2"/>
-          <c:y val="0.12583290202955646"/>
-          <c:w val="0.87158872305140966"/>
-          <c:h val="0.68839147225234465"/>
+          <c:y val="0.12838555040224311"/>
+          <c:w val="0.87822222222222224"/>
+          <c:h val="0.70625991789316067"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1479,11 +1546,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1523,7 +1590,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AK$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AK$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1743,7 +1810,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1774,7 +1841,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.354603987934344"/>
-          <c:y val="0.89406891145626577"/>
+          <c:y val="0.90683215331969913"/>
           <c:w val="0.30405891800838331"/>
           <c:h val="5.6664822322628448E-2"/>
         </c:manualLayout>
@@ -2356,15 +2423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>15876</xdr:rowOff>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>206374</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2390,6 +2457,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="8">
+          <cell r="C8">
+            <v>3.739E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2513,12 +2642,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>175.98</v>
-    <v>138.88999999999999</v>
-    <v>0.73070000000000002</v>
-    <v>-0.22</v>
-    <v>-1.3339999999999999E-3</v>
-    <v>2.15</v>
-    <v>1.3051E-2</v>
+    <v>148.31</v>
+    <v>0.7288</v>
+    <v>-1.32</v>
+    <v>-7.9080000000000001E-3</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -2526,25 +2653,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>166.7</v>
+    <v>167.72</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45082.911387453125</v>
+    <v>45100.998461041403</v>
     <v>0</v>
-    <v>164.67</v>
-    <v>67018983158</v>
+    <v>165.15</v>
+    <v>67364780000</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>165.12</v>
-    <v>30.167300000000001</v>
-    <v>164.96</v>
-    <v>164.74</v>
-    <v>166.89</v>
+    <v>166.88</v>
+    <v>30.282499999999999</v>
+    <v>166.91</v>
+    <v>165.59</v>
     <v>406816700</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>1457336</v>
-    <v>1417855</v>
+    <v>17</v>
+    <v>1453613</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2576,8 +2702,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2598,7 +2722,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2615,7 +2738,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2626,16 +2749,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2701,19 +2821,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2758,9 +2872,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2768,9 +2879,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3132,10 +3240,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO28" sqref="AO28"/>
+      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3278,121 +3386,121 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9"/>
       <c r="AP2" s="9"/>
@@ -3510,36 +3618,36 @@
         <v>19698000000</v>
       </c>
       <c r="AL3" s="26">
-        <v>20678000000</v>
+        <v>20675000000</v>
       </c>
       <c r="AM3" s="26">
-        <v>21734000000</v>
+        <v>21825000000</v>
       </c>
       <c r="AN3" s="26">
-        <v>23201000000</v>
+        <v>23364000000</v>
       </c>
       <c r="AO3" s="26">
-        <v>24617000000</v>
+        <v>25103000000</v>
       </c>
       <c r="AP3" s="26">
-        <v>25905000000</v>
+        <v>26407000000</v>
       </c>
       <c r="AQ3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AS3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AT3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AT3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3684,23 +3792,23 @@
       </c>
       <c r="AL4" s="16">
         <f t="shared" si="0"/>
-        <v>4.9751243781094523E-2</v>
+        <v>4.9598944055234018E-2</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>5.1068768739723325E-2</v>
+        <v>5.5622732769044836E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>6.7497929511364685E-2</v>
+        <v>7.0515463917525834E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>6.1031852075341675E-2</v>
+        <v>7.4430748159561633E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>5.2321566397205199E-2</v>
+        <v>5.1945982551886205E-2</v>
       </c>
       <c r="AQ4" s="17">
         <f>(AK4+AJ4+AI4)/3</f>
@@ -3715,7 +3823,7 @@
         <v>0.11403032705819723</v>
       </c>
       <c r="AT4" s="17">
-        <f>(AK105+AJ105+AI105)/3</f>
+        <f>(AK106+AJ106+AI106)/3</f>
         <v>1.2161870681517898E-2</v>
       </c>
     </row>
@@ -3945,16 +4053,16 @@
         <v>7404000000</v>
       </c>
       <c r="AQ6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AR6" s="19" t="s">
+      <c r="AS6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AT6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AT6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -4082,7 +4190,7 @@
         <v>0.11360000000000001</v>
       </c>
       <c r="AT7" s="20">
-        <f>AK106/AK3</f>
+        <f>AK107/AK3</f>
         <v>9.8944055234033906E-2</v>
       </c>
     </row>
@@ -4201,7 +4309,7 @@
     </row>
     <row r="9" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -4348,16 +4456,16 @@
         <v>0</v>
       </c>
       <c r="AQ9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AR9" s="19" t="s">
+      <c r="AS9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AT9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AT9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -4365,28 +4473,28 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1">
         <v>62200000</v>
@@ -4410,37 +4518,37 @@
         <v>1622000000</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1">
         <v>1427000000</v>
@@ -4486,7 +4594,7 @@
       </c>
       <c r="AT10" s="20">
         <f>AK89</f>
-        <v>0</v>
+        <v>0.13635902122042848</v>
       </c>
     </row>
     <row r="11" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -4494,112 +4602,112 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -4715,21 +4823,21 @@
         <v>1938000000</v>
       </c>
       <c r="AQ12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AR12" s="19" t="s">
+      <c r="AS12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AT12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AT12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -5002,7 +5110,7 @@
         <v>2036000000</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -5118,16 +5226,16 @@
         <v>1938000000</v>
       </c>
       <c r="AQ15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AR15" s="19" t="s">
+      <c r="AS15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AS15" s="19" t="s">
+      <c r="AT15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AT15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -5248,83 +5356,83 @@
       </c>
       <c r="AR16" s="28">
         <f>AS101/AK3</f>
-        <v>3.4023242541374761</v>
+        <v>3.4198791755508173</v>
       </c>
       <c r="AS16" s="28">
         <f>AS101/AK28</f>
-        <v>29.945926344057195</v>
+        <v>30.100437890974085</v>
       </c>
       <c r="AT16" s="29">
-        <f>AS101/AK106</f>
-        <v>34.386343334017447</v>
+        <f>AS101/AK107</f>
+        <v>34.563766033863523</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1">
         <v>455000000</v>
@@ -5372,15 +5480,15 @@
         <v>378000000</v>
       </c>
     </row>
-    <row r="18" spans="1:43" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>400000</v>
@@ -5485,10 +5593,19 @@
         <v>2038000000</v>
       </c>
       <c r="AQ18" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="AR18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5599,15 +5716,42 @@
       </c>
       <c r="AK19" s="10">
         <v>5332000000</v>
+      </c>
+      <c r="AL19" s="71">
+        <v>5901000000</v>
+      </c>
+      <c r="AM19" s="71">
+        <v>6352000000</v>
+      </c>
+      <c r="AN19" s="71">
+        <v>7006000000</v>
+      </c>
+      <c r="AO19" s="71">
+        <v>7721000000</v>
+      </c>
+      <c r="AP19" s="71">
+        <v>8135000000</v>
       </c>
       <c r="AQ19" s="47">
         <f>AK40-AK56-AK61</f>
         <v>-14633000000</v>
       </c>
+      <c r="AR19" s="63">
+        <f>AS101/AL3</f>
+        <v>3.2582723095525998</v>
+      </c>
+      <c r="AS19" s="64">
+        <f>AS101/AL28</f>
+        <v>27.384056910569107</v>
+      </c>
+      <c r="AT19" s="65">
+        <f>AS101/AL106</f>
+        <v>34.005441696113074</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5750,8 +5894,31 @@
         <f t="shared" ref="AK20" si="8">(AK19/AJ19)-1</f>
         <v>0.13157894736842102</v>
       </c>
+      <c r="AL20" s="16">
+        <f t="shared" ref="AL20" si="9">(AL19/AK19)-1</f>
+        <v>0.10671417854463616</v>
+      </c>
+      <c r="AM20" s="16">
+        <f t="shared" ref="AM20" si="10">(AM19/AL19)-1</f>
+        <v>7.6427724114556783E-2</v>
+      </c>
+      <c r="AN20" s="16">
+        <f t="shared" ref="AN20" si="11">(AN19/AM19)-1</f>
+        <v>0.1029596977329974</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" ref="AO20" si="12">(AO19/AN19)-1</f>
+        <v>0.1020553811019127</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" ref="AP20" si="13">(AP19/AO19)-1</f>
+        <v>5.3619997409662057E-2</v>
+      </c>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
     </row>
-    <row r="21" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5863,8 +6030,34 @@
       <c r="AK21" s="2">
         <v>0.2707</v>
       </c>
+      <c r="AL21" s="72">
+        <f>AL19/AL3</f>
+        <v>0.28541717049576781</v>
+      </c>
+      <c r="AM21" s="72">
+        <f t="shared" ref="AM21:AP21" si="14">AM19/AM3</f>
+        <v>0.29104238258877435</v>
+      </c>
+      <c r="AN21" s="72">
+        <f t="shared" si="14"/>
+        <v>0.29986303715117274</v>
+      </c>
+      <c r="AO21" s="72">
+        <f t="shared" si="14"/>
+        <v>0.30757280006373738</v>
+      </c>
+      <c r="AP21" s="72">
+        <f t="shared" si="14"/>
+        <v>0.30806225621994165</v>
+      </c>
+      <c r="AS21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5875,7 +6068,7 @@
         <v>200000</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="10">
         <v>200000</v>
@@ -5976,8 +6169,16 @@
       <c r="AK22" s="10">
         <v>3365000000</v>
       </c>
+      <c r="AS22" s="66">
+        <f>(-1*AK98)/AS101</f>
+        <v>1.5987582828890706E-2</v>
+      </c>
+      <c r="AT22" s="67">
+        <f>AK107/AS101</f>
+        <v>2.8932032435940561E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5988,7 +6189,7 @@
         <v>0.1053</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2">
         <v>5.4100000000000002E-2</v>
@@ -6090,12 +6291,12 @@
         <v>0.17080000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>100000</v>
@@ -6203,21 +6404,21 @@
         <v>-447000000</v>
       </c>
     </row>
-    <row r="25" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10">
         <v>300000</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="10">
         <v>4400000</v>
@@ -6316,21 +6517,21 @@
         <v>2918000000</v>
       </c>
     </row>
-    <row r="26" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2">
         <v>0.15790000000000001</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2">
         <v>0.2404</v>
@@ -6429,21 +6630,21 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>100000</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1">
         <v>1400000</v>
@@ -6542,7 +6743,7 @@
         <v>678000000</v>
       </c>
     </row>
-    <row r="28" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6654,10 +6855,25 @@
       <c r="AK28" s="11">
         <v>2238000000</v>
       </c>
+      <c r="AL28" s="68">
+        <v>2460000000</v>
+      </c>
+      <c r="AM28" s="68">
+        <v>2734000000</v>
+      </c>
+      <c r="AN28" s="68">
+        <v>3068000000</v>
+      </c>
+      <c r="AO28" s="68">
+        <v>3503000000</v>
+      </c>
+      <c r="AP28" s="68">
+        <v>3763000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:43" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6673,135 +6889,155 @@
         <v>1</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AF29" si="9">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AF29" si="15">(F28/E28)-1</f>
         <v>14</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.4333333333333331</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.31506849315068486</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.4375</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.1956521739130435</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>8.5808580858085737E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>7.1155015197568385</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-3.8865168539325841</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.48410535876475935</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.75603621730382298</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-6.1855670103092786</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.63419483101391649</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.23357664233576647</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.49047619047619051</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.2587859424920127</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-2.7918781725888353E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.2184508268059169E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-6.5348237317282898E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-8.5556577736890516E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-4.1247484909456733E-2</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>8.394543546694555E-3</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.14984391259105101</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.88004895960832319</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>12.244897959183673</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>-0.41987673343605547</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.56972111553784854</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.64890016920473781</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" ref="AG29" si="10">(AG28/AF28)-1</f>
+        <f t="shared" ref="AG29" si="16">(AG28/AF28)-1</f>
         <v>-1.2314007183170883E-2</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" ref="AH29" si="11">(AH28/AG28)-1</f>
+        <f t="shared" ref="AH29" si="17">(AH28/AG28)-1</f>
         <v>-0.13246753246753251</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" ref="AI29" si="12">(AI28/AH28)-1</f>
+        <f t="shared" ref="AI29" si="18">(AI28/AH28)-1</f>
         <v>-0.10419161676646704</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" ref="AJ29" si="13">(AJ28/AI28)-1</f>
+        <f t="shared" ref="AJ29" si="19">(AJ28/AI28)-1</f>
         <v>0.21390374331550799</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" ref="AK29" si="14">(AK28/AJ28)-1</f>
+        <f t="shared" ref="AK29" si="20">(AK28/AJ28)-1</f>
         <v>0.23237885462555075</v>
       </c>
+      <c r="AL29" s="16">
+        <f t="shared" ref="AL29" si="21">(AL28/AK28)-1</f>
+        <v>9.9195710455764141E-2</v>
+      </c>
+      <c r="AM29" s="16">
+        <f t="shared" ref="AM29" si="22">(AM28/AL28)-1</f>
+        <v>0.11138211382113816</v>
+      </c>
+      <c r="AN29" s="16">
+        <f t="shared" ref="AN29" si="23">(AN28/AM28)-1</f>
+        <v>0.12216532553035853</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" ref="AO29" si="24">(AO28/AN28)-1</f>
+        <v>0.14178617992177323</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" ref="AP29" si="25">(AP28/AO28)-1</f>
+        <v>7.422209534684554E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6913,8 +7149,28 @@
       <c r="AK30" s="2">
         <v>0.11360000000000001</v>
       </c>
+      <c r="AL30" s="69">
+        <f>AL28/AL3</f>
+        <v>0.11898428053204353</v>
+      </c>
+      <c r="AM30" s="69">
+        <f t="shared" ref="AM30:AP30" si="26">AM28/AM3</f>
+        <v>0.12526918671248569</v>
+      </c>
+      <c r="AN30" s="69">
+        <f t="shared" si="26"/>
+        <v>0.13131313131313133</v>
+      </c>
+      <c r="AO30" s="69">
+        <f t="shared" si="26"/>
+        <v>0.13954507429390908</v>
+      </c>
+      <c r="AP30" s="69">
+        <f t="shared" si="26"/>
+        <v>0.14250009467186731</v>
+      </c>
     </row>
-    <row r="31" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7026,8 +7282,23 @@
       <c r="AK31" s="12">
         <v>5.42</v>
       </c>
+      <c r="AL31" s="70">
+        <v>6.05</v>
+      </c>
+      <c r="AM31" s="70">
+        <v>6.72</v>
+      </c>
+      <c r="AN31" s="70">
+        <v>7.54</v>
+      </c>
+      <c r="AO31" s="70">
+        <v>8.61</v>
+      </c>
+      <c r="AP31" s="70">
+        <v>9.18</v>
+      </c>
     </row>
-    <row r="32" spans="1:43" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7368,7 +7639,7 @@
     </row>
     <row r="35" spans="1:37" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7376,139 +7647,139 @@
         <v>0.33333293333341335</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AF35" si="15">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AF35" si="27">(D34-C34)/C34</f>
         <v>0.5</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.8125002812500282</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.19794869333333334</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>5.6419823077119652E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.80277775366269888</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.5840519346283017</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.5283155418852903</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.67003721196507804</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.5037429672067224</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4.900042957311386E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.0901698720249554E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.711340206185567E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.7025665208747515E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.8355598161650704E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.8692694496661548E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.0313222293536592E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.2547739759685612E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-4.6821762675410383E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-5.0092863872685418E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.6334275333064193E-3</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-2.3095623987034037E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-2.2397345499792616E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.4849384811200678E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.1627906976744186E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-8.9399744572158362E-3</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-2.0833333333333332E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-2.0618556701030927E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.0302351623740201E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" ref="AG35" si="16">(AG34-AF34)/AF34</f>
+        <f t="shared" ref="AG35" si="28">(AG34-AF34)/AF34</f>
         <v>-2.1950667571848836E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" ref="AH35" si="17">(AH34-AG34)/AG34</f>
+        <f t="shared" ref="AH35" si="29">(AH34-AG34)/AG34</f>
         <v>-1.0874595094863489E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" ref="AI35" si="18">(AI34-AH34)/AH34</f>
+        <f t="shared" ref="AI35" si="30">(AI34-AH34)/AH34</f>
         <v>-5.6140350877192978E-3</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" ref="AJ35" si="19">(AJ34-AI34)/AI34</f>
+        <f t="shared" ref="AJ35" si="31">(AJ34-AI34)/AI34</f>
         <v>0</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" ref="AK35" si="20">(AK34-AJ34)/AJ34</f>
+        <f t="shared" ref="AK35" si="32">(AK34-AJ34)/AJ34</f>
         <v>-2.3759115502234768E-2</v>
       </c>
     </row>
@@ -7517,112 +7788,112 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="21" x14ac:dyDescent="0.25">
@@ -7630,112 +7901,112 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -7743,28 +8014,28 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1">
         <v>13200000</v>
@@ -7856,112 +8127,112 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB39" s="1">
         <v>177000000</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -7969,28 +8240,28 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1">
         <v>13200000</v>
@@ -8082,28 +8353,28 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1">
         <v>72100000</v>
@@ -8195,37 +8466,37 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1">
         <v>128300000</v>
@@ -8300,7 +8571,7 @@
         <v>135000000</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -8308,28 +8579,28 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1">
         <v>34800000</v>
@@ -8421,28 +8692,28 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10">
         <v>120100000</v>
@@ -8534,28 +8805,28 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1">
         <v>593300000</v>
@@ -8647,49 +8918,49 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1">
         <v>5079000000</v>
@@ -8698,10 +8969,10 @@
         <v>5266000000</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1">
         <v>5292000000</v>
@@ -8760,28 +9031,28 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1">
         <v>118800000</v>
@@ -8873,28 +9144,28 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1">
         <v>118800000</v>
@@ -8986,76 +9257,76 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1">
         <v>637000000</v>
@@ -9091,7 +9362,7 @@
         <v>432000000</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -9099,112 +9370,112 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -9212,28 +9483,28 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1">
         <v>75800000</v>
@@ -9325,28 +9596,28 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1">
         <v>787900000</v>
@@ -9438,112 +9709,112 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -9551,28 +9822,28 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11">
         <v>908000000</v>
@@ -9664,28 +9935,28 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1">
         <v>32400000</v>
@@ -9769,7 +10040,7 @@
         <v>1375000000</v>
       </c>
       <c r="AK55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -9777,28 +10048,28 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>38900000</v>
@@ -9890,112 +10161,112 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -10003,46 +10274,46 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1">
         <v>374000000</v>
@@ -10116,28 +10387,28 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1">
         <v>33900000</v>
@@ -10221,7 +10492,7 @@
         <v>1428000000</v>
       </c>
       <c r="AK59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -10229,28 +10500,28 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10">
         <v>105200000</v>
@@ -10342,28 +10613,28 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1">
         <v>334900000</v>
@@ -10455,112 +10726,112 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -10568,31 +10839,31 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1">
         <v>8800000</v>
@@ -10673,7 +10944,7 @@
         <v>1694000000</v>
       </c>
       <c r="AK63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -10681,28 +10952,28 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1">
         <v>65100000</v>
@@ -10794,28 +11065,28 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1">
         <v>400000000</v>
@@ -10907,112 +11178,112 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -11020,28 +11291,28 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10">
         <v>505200000</v>
@@ -11133,40 +11404,40 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1">
         <v>6300000</v>
@@ -11238,7 +11509,7 @@
         <v>6000000</v>
       </c>
       <c r="AK68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -11246,28 +11517,28 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1">
         <v>-324000000</v>
@@ -11359,28 +11630,28 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1">
         <v>-235000000</v>
@@ -11464,7 +11735,7 @@
         <v>17000000</v>
       </c>
       <c r="AK70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -11472,28 +11743,28 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1">
         <v>961800000</v>
@@ -11577,7 +11848,7 @@
         <v>-4903000000</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -11585,28 +11856,28 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10">
         <v>402800000</v>
@@ -11698,28 +11969,28 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11">
         <v>908000000</v>
@@ -11811,112 +12082,112 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:37" ht="21" x14ac:dyDescent="0.25">
@@ -11924,112 +12195,112 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12037,10 +12308,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>100000</v>
@@ -12150,10 +12421,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>400000</v>
@@ -12263,16 +12534,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>200000</v>
@@ -12368,7 +12639,7 @@
         <v>-77000000</v>
       </c>
       <c r="AK78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12376,67 +12647,67 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1">
         <v>48000000</v>
@@ -12486,150 +12757,150 @@
     </row>
     <row r="80" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AK80" si="21">B79/B3</f>
+        <f t="shared" ref="B80:AK80" si="33">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.5853002688975202E-3</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.5443134594182004E-3</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.8765481422293247E-3</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>3.3637314994767529E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2.124697780057147E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>4.1478938711292284E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>4.6441840525864534E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>5.5551269192191961E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>6.6132706297303253E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>6.9727304107697619E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>5.9675472710205178E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>5.5645422193464902E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>6.1768957813116048E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>6.0230885059394347E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>-1.9798964361864148E-3</v>
       </c>
     </row>
@@ -12638,22 +12909,22 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>-100000</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F81" s="1">
         <v>-2600000</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H81" s="1">
         <v>-6100000</v>
@@ -12751,79 +13022,79 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA82" s="1">
         <v>-131000000</v>
@@ -12850,13 +13121,13 @@
         <v>-53000000</v>
       </c>
       <c r="AI82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:45" ht="21" x14ac:dyDescent="0.25">
@@ -12864,262 +13135,262 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR83" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="AR83" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS83" s="76"/>
     </row>
     <row r="84" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR84" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS84" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AR84" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS84" s="78"/>
     </row>
     <row r="85" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1">
         <v>14900000</v>
@@ -13203,10 +13474,10 @@
         <v>-103000000</v>
       </c>
       <c r="AK85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR85" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS85" s="50">
         <f>AK17</f>
@@ -13218,16 +13489,16 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="1">
         <v>-700000</v>
@@ -13323,10 +13594,10 @@
         <v>366000000</v>
       </c>
       <c r="AK86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR86" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS86" s="50">
         <f>AK56</f>
@@ -13338,10 +13609,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>400000</v>
@@ -13446,7 +13717,7 @@
         <v>4536000000</v>
       </c>
       <c r="AR87" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AS87" s="50">
         <f>AK61</f>
@@ -13458,10 +13729,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-2200000</v>
@@ -13557,16 +13828,16 @@
         <v>-1818000000</v>
       </c>
       <c r="AI88" s="1">
-        <v>0</v>
+        <v>-1647000000</v>
       </c>
       <c r="AJ88" s="1">
-        <v>0</v>
+        <v>-1915000000</v>
       </c>
       <c r="AK88" s="1">
-        <v>0</v>
+        <v>-2686000000</v>
       </c>
       <c r="AR88" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AS88" s="52">
         <f>AS85/(AS86+AS87)</f>
@@ -13575,154 +13846,154 @@
     </row>
     <row r="89" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AK89" si="34">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.25136612021857924</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.1206896551724138</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.28809218950064019</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.23212258796821794</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.18507985123605339</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.26526572255215469</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.86284336980641207</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.28320541583028297</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.19928543677486688</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.10510726865193724</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.11729376435258788</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.11550888529886914</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.10368066355624676</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.10051134547778844</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="34"/>
+        <v>9.0255468869512009E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="34"/>
+        <v>9.9453715483050209E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="34"/>
+        <v>9.0984222389181066E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="34"/>
+        <v>9.1201075590080671E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="34"/>
+        <v>9.9991518955135278E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="34"/>
+        <v>8.8214143028365957E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="34"/>
+        <v>9.8968455673493799E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.11063081544435489</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="34"/>
+        <v>9.0896088106987058E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="34"/>
+        <v>8.2237782223492428E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="34"/>
+        <v>9.5131548491628734E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="34"/>
+        <v>9.8390770813432282E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.10417673455298584</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.11358455142818828</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.11763183435781301</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.10822709948744907</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.10679828230438905</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="34"/>
+        <v>0.13635902122042848</v>
+      </c>
+      <c r="AR89" s="49" t="s">
         <v>105</v>
-      </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AK89" si="22">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.21621621621621623</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.25136612021857924</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.1206896551724138</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.28809218950064019</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.23212258796821794</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.18507985123605339</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.26526572255215469</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.86284336980641207</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.28320541583028297</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.19928543677486688</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.10510726865193724</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.11729376435258788</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.11550888529886914</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.10368066355624676</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.10051134547778844</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="22"/>
-        <v>9.0255468869512009E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="22"/>
-        <v>9.9453715483050209E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="22"/>
-        <v>9.0984222389181066E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="22"/>
-        <v>9.1201075590080671E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="22"/>
-        <v>9.9991518955135278E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="22"/>
-        <v>8.8214143028365957E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="22"/>
-        <v>9.8968455673493799E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.11063081544435489</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="22"/>
-        <v>9.0896088106987058E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="22"/>
-        <v>8.2237782223492428E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="22"/>
-        <v>9.5131548491628734E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="22"/>
-        <v>9.8390770813432282E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.10417673455298584</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.11358455142818828</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="22"/>
-        <v>0.11763183435781301</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AR89" s="49" t="s">
-        <v>106</v>
       </c>
       <c r="AS89" s="50">
         <f>AK27</f>
@@ -13734,43 +14005,43 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1">
         <v>-231000000</v>
@@ -13854,58 +14125,58 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1">
         <v>-12600000</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1">
         <v>-40700000</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1">
         <v>-1079000000</v>
@@ -13917,10 +14188,10 @@
         <v>-1220000000</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y91" s="1">
         <v>-173000000</v>
@@ -13929,40 +14200,40 @@
         <v>-155000000</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR91" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS91" s="52">
         <f>AS89/AS90</f>
@@ -13974,37 +14245,37 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1">
         <v>57500000</v>
@@ -14016,16 +14287,16 @@
         <v>54000000</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1">
         <v>784000000</v>
@@ -14037,52 +14308,52 @@
         <v>1404000000</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1">
         <v>34000000</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR92" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AS92" s="54">
         <f>AS88*(1-AS91)</f>
@@ -14094,10 +14365,10 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>100000</v>
@@ -14163,7 +14434,7 @@
         <v>182000000</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z93" s="1">
         <v>125000000</v>
@@ -14201,20 +14472,20 @@
       <c r="AK93" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR93" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS93" s="65"/>
+      <c r="AR93" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS93" s="78"/>
     </row>
     <row r="94" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-2100000</v>
@@ -14319,10 +14590,11 @@
         <v>-3063000000</v>
       </c>
       <c r="AR94" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS94" s="55">
-        <v>4.095E-2</v>
+        <v>133</v>
+      </c>
+      <c r="AS94" s="62">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14330,67 +14602,67 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1">
         <v>-1785000000</v>
@@ -14438,11 +14710,11 @@
         <v>-7328000000</v>
       </c>
       <c r="AR95" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS95" s="58" cm="1">
         <f t="array" ref="AS95">_FV(A1,"Beta")</f>
-        <v>0.73070000000000002</v>
+        <v>0.7288</v>
       </c>
     </row>
     <row r="96" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14450,13 +14722,13 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>4300000</v>
@@ -14468,7 +14740,7 @@
         <v>200000</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1">
         <v>600000</v>
@@ -14513,52 +14785,52 @@
         <v>142000000</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR96" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AS96" s="55">
         <v>8.4000000000000005E-2</v>
@@ -14569,49 +14841,49 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-3500000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q97" s="1">
         <v>-982000000</v>
@@ -14644,7 +14916,7 @@
         <v>-575000000</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB97" s="1">
         <v>-239000000</v>
@@ -14677,11 +14949,11 @@
         <v>-1500000000</v>
       </c>
       <c r="AR97" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS97" s="54">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
-        <v>7.2406634999999997E-2</v>
+        <v>7.1359368000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -14689,37 +14961,37 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1">
         <v>-700000</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1">
         <v>-1300000</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1">
         <v>-93800000</v>
@@ -14796,20 +15068,20 @@
       <c r="AK98" s="1">
         <v>-1077000000</v>
       </c>
-      <c r="AR98" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS98" s="65"/>
+      <c r="AR98" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS98" s="78"/>
     </row>
     <row r="99" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1">
         <v>-200000</v>
@@ -14914,7 +15186,7 @@
         <v>8689000000</v>
       </c>
       <c r="AR99" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AS99" s="50">
         <f>AS86+AS87</f>
@@ -14926,10 +15198,10 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10">
         <v>-200000</v>
@@ -15034,11 +15306,11 @@
         <v>-1216000000</v>
       </c>
       <c r="AR100" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS100" s="52">
         <f>AS99/AS103</f>
-        <v>0.18272505978385495</v>
+        <v>0.18195776549452219</v>
       </c>
     </row>
     <row r="101" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15046,34 +15318,34 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1">
         <v>-200000</v>
@@ -15133,10 +15405,10 @@
         <v>-3000000</v>
       </c>
       <c r="AE101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG101" s="1">
         <v>-3000000</v>
@@ -15154,11 +15426,11 @@
         <v>-6000000</v>
       </c>
       <c r="AR101" s="57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AS101" s="41" cm="1">
         <f t="array" ref="AS101">_FV(A1,"Market cap",TRUE)</f>
-        <v>67018983158</v>
+        <v>67364780000</v>
       </c>
     </row>
     <row r="102" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15166,10 +15438,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>-200000</v>
@@ -15190,16 +15462,16 @@
         <v>39900000</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N102" s="10">
         <v>94500000</v>
@@ -15274,11 +15546,11 @@
         <v>251000000</v>
       </c>
       <c r="AR102" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS102" s="52">
         <f>AS101/AS103</f>
-        <v>0.81727494021614511</v>
+        <v>0.81804223450547775</v>
       </c>
     </row>
     <row r="103" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15286,10 +15558,10 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>3000000</v>
@@ -15394,52 +15666,52 @@
         <v>194000000</v>
       </c>
       <c r="AR103" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS103" s="56">
         <f>AS99+AS101</f>
-        <v>82002983158</v>
+        <v>82348780000</v>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11">
         <v>181400000</v>
@@ -15513,364 +15785,478 @@
       <c r="AK104" s="11">
         <v>445000000</v>
       </c>
-      <c r="AR104" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS104" s="65"/>
+      <c r="AR104" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS104" s="78"/>
     </row>
-    <row r="105" spans="1:45" ht="20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" ref="D105:AJ105" si="35">(D22*(1-$AS$91))+D77+D88+D81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="35"/>
+        <v>-1608224.8115147362</v>
+      </c>
+      <c r="G105" s="1" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="35"/>
+        <v>-5277313.2282385193</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="35"/>
+        <v>-9221110.349554494</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="35"/>
+        <v>-69056888.279643595</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="35"/>
+        <v>-7597052.7758738995</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="35"/>
+        <v>-1654675394.1055517</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="35"/>
+        <v>-390756408.49897194</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="35"/>
+        <v>-705493214.53050041</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="35"/>
+        <v>1433788896.5044551</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="35"/>
+        <v>990893762.85126781</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="35"/>
+        <v>1028015078.8211102</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="35"/>
+        <v>795179575.05140495</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="35"/>
+        <v>1063235777.930089</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="35"/>
+        <v>1174679917.7518849</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="35"/>
+        <v>1543559972.5839615</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="35"/>
+        <v>1697281014.3934202</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="35"/>
+        <v>1642928032.8992462</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="35"/>
+        <v>1469553803.9753256</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="35"/>
+        <v>1484345442.0836191</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="35"/>
+        <v>1289792323.5092525</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="35"/>
+        <v>989918437.28581238</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="35"/>
+        <v>810293351.61069202</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="35"/>
+        <v>1640825222.755312</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="35"/>
+        <v>1203842357.7793007</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="35"/>
+        <v>1801522275.5311856</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="35"/>
+        <v>1689522960.9321451</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="35"/>
+        <v>1894973269.362577</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="35"/>
+        <v>1913258396.1617546</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="35"/>
+        <v>1565457847.8409872</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="35"/>
+        <v>2486079506.5113091</v>
+      </c>
+      <c r="AK105" s="1">
+        <f>(AK22*(1-$AS$91))+AK77+AK88+AK81</f>
+        <v>2232139136.3947906</v>
+      </c>
+      <c r="AL105" s="30">
+        <f>AK105*(1+$AD$106)</f>
+        <v>2392928819.9486527</v>
+      </c>
+      <c r="AM105" s="30">
+        <f t="shared" ref="AM105:AP105" si="36">AL105*(1+$AD$106)</f>
+        <v>2565300811.2161407</v>
+      </c>
+      <c r="AN105" s="30">
+        <f t="shared" si="36"/>
+        <v>2750089428.9732356</v>
+      </c>
+      <c r="AO105" s="30">
+        <f t="shared" si="36"/>
+        <v>2948189091.2297821</v>
+      </c>
+      <c r="AP105" s="30">
+        <f t="shared" si="36"/>
+        <v>3160558644.4115887</v>
+      </c>
+      <c r="AQ105" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR105" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-1.0555555555555556</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-32</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-3.2580645161290325</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AF105" si="23">(H106/G106)-1</f>
-        <v>-2.4857142857142858</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="23"/>
-        <v>1.1153846153846154</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="23"/>
-        <v>4.459090909090909</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.19233971690258111</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="23"/>
-        <v>11.587290502793296</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.16266296809986125</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="23"/>
-        <v>-0.55795199694612774</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="23"/>
-        <v>-1.876511226252159</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.2647783251231528</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="23"/>
-        <v>-0.1567672833495618</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="23"/>
-        <v>-0.1616628175519631</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.3223140495867769</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.26145833333333335</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="23"/>
-        <v>1.4037985136251097E-2</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.10260586319218246</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="23"/>
-        <v>-0.12629246676514028</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="23"/>
-        <v>-1.0143702451394732E-2</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="23"/>
-        <v>-2.2203245089666979E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="23"/>
-        <v>-0.31441048034934493</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.50828025477707017</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="23"/>
-        <v>-3.3783783783783994E-3</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="23"/>
-        <v>7.2033898305084776E-2</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="23"/>
-        <v>0.2814229249011857</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="23"/>
-        <v>3.0845157310302351E-2</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" ref="AG105" si="24">(AG106/AF106)-1</f>
-        <v>0.12268102932375813</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" ref="AH105" si="25">(AH106/AG106)-1</f>
-        <v>9.5948827292110961E-2</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" ref="AI105" si="26">(AI106/AH106)-1</f>
-        <v>-0.13861867704280151</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" ref="AJ105" si="27">(AJ106/AI106)-1</f>
-        <v>0.37436476566911359</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" ref="AK105" si="28">(AK106/AJ106)-1</f>
-        <v>-0.19926047658175838</v>
-      </c>
-      <c r="AL105" s="15"/>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="23" t="s">
-        <v>108</v>
       </c>
       <c r="AS105" s="24">
         <f>(AS100*AS92)+(AS102*AS97)</f>
-        <v>6.2714674561575715E-2</v>
+        <v>6.1898664151417059E-2</v>
       </c>
     </row>
     <row r="106" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-1800000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-3100000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>7000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-10400000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-22000000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-120100000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>-143200000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>-1802500000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>-2095700000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>-926400000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>812000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>1027000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>866000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>726000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>960000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>1211000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>1211000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>1228000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1354000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1183000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1171000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>1145000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>785000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>1184000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>1180000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>1265000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>1621000000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>1671000000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>1876000000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>2056000000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>1771000000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>2434000000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>1949000000</v>
-      </c>
-      <c r="AL106" s="30">
-        <f>AK106*(1+$AS$106)</f>
-        <v>2058795496.3247435</v>
-      </c>
-      <c r="AM106" s="30">
-        <f t="shared" ref="AM106:AP106" si="29">AL106*(1+$AS$106)</f>
-        <v>2174776242.0149035</v>
-      </c>
-      <c r="AN106" s="30">
-        <f t="shared" si="29"/>
-        <v>2297290678.5912437</v>
-      </c>
-      <c r="AO106" s="30">
-        <f t="shared" si="29"/>
-        <v>2426706876.7739697</v>
-      </c>
-      <c r="AP106" s="30">
-        <f t="shared" si="29"/>
-        <v>2563413642.2793908</v>
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:AK106" si="37">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="37"/>
+        <v>-1.0555555555555556</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="37"/>
+        <v>-32</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="37"/>
+        <v>-3.2580645161290325</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="37"/>
+        <v>-2.4857142857142858</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="37"/>
+        <v>1.1153846153846154</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="37"/>
+        <v>4.459090909090909</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.19233971690258111</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="37"/>
+        <v>11.587290502793296</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.16266296809986125</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="37"/>
+        <v>-0.55795199694612774</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="37"/>
+        <v>-1.876511226252159</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.2647783251231528</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="37"/>
+        <v>-0.1567672833495618</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="37"/>
+        <v>-0.1616628175519631</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.3223140495867769</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.26145833333333335</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="37"/>
+        <v>1.4037985136251097E-2</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.10260586319218246</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="37"/>
+        <v>-0.12629246676514028</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="37"/>
+        <v>-1.0143702451394732E-2</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="37"/>
+        <v>-2.2203245089666979E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="37"/>
+        <v>-0.31441048034934493</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.50828025477707017</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="37"/>
+        <v>-3.3783783783783994E-3</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="37"/>
+        <v>7.2033898305084776E-2</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.2814229249011857</v>
+      </c>
+      <c r="AF106" s="15">
+        <f t="shared" si="37"/>
+        <v>3.0845157310302351E-2</v>
+      </c>
+      <c r="AG106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.12268102932375813</v>
+      </c>
+      <c r="AH106" s="15">
+        <f t="shared" si="37"/>
+        <v>9.5948827292110961E-2</v>
+      </c>
+      <c r="AI106" s="15">
+        <f t="shared" si="37"/>
+        <v>-0.13861867704280151</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f t="shared" si="37"/>
+        <v>0.37436476566911359</v>
+      </c>
+      <c r="AK106" s="15">
+        <f t="shared" si="37"/>
+        <v>-0.19926047658175838</v>
+      </c>
+      <c r="AL106" s="61">
+        <v>1981000000</v>
+      </c>
+      <c r="AM106" s="61">
+        <v>2798000000</v>
+      </c>
+      <c r="AN106" s="61">
+        <v>3534000000</v>
+      </c>
+      <c r="AO106" s="61">
+        <v>4069000000</v>
+      </c>
+      <c r="AP106" s="61">
+        <v>4278000000</v>
       </c>
       <c r="AQ106" s="31" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AR106" s="32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AS106" s="33">
         <f>(SUM(AL4:AP4)/5)</f>
-        <v>5.6334272100945881E-2</v>
+        <v>6.0422774290650502E-2</v>
       </c>
     </row>
     <row r="107" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
+      <c r="A107" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-1800000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-3100000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-10400000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-22000000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-120100000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>-143200000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>-1802500000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>-2095700000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>-926400000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>812000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>1027000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>866000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>726000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>960000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1211000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1211000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>1228000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1354000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1183000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1171000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>1145000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>785000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>1184000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>1180000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>1265000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>1621000000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>1671000000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>1876000000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>2056000000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>1771000000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>2434000000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>1949000000</v>
+      </c>
       <c r="AL107" s="31"/>
       <c r="AM107" s="31"/>
       <c r="AN107" s="31"/>
       <c r="AO107" s="31"/>
       <c r="AP107" s="34">
-        <f>AP106*(1+AS107)/(AS108-AS107)</f>
-        <v>69667815349.872101</v>
+        <f>AP105*(1+AS107)/(AS108-AS107)</f>
+        <v>87796474073.641113</v>
       </c>
       <c r="AQ107" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AR107" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AS107" s="37">
         <v>2.5000000000000001E-2</v>
@@ -15878,54 +16264,54 @@
     </row>
     <row r="108" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="AL108" s="34">
-        <f t="shared" ref="AL108:AN108" si="30">AL107+AL106</f>
-        <v>2058795496.3247435</v>
+        <f t="shared" ref="AL108:AO108" si="38">AL107+AL105</f>
+        <v>2392928819.9486527</v>
       </c>
       <c r="AM108" s="34">
-        <f t="shared" si="30"/>
-        <v>2174776242.0149035</v>
+        <f t="shared" si="38"/>
+        <v>2565300811.2161407</v>
       </c>
       <c r="AN108" s="34">
-        <f t="shared" si="30"/>
-        <v>2297290678.5912437</v>
+        <f t="shared" si="38"/>
+        <v>2750089428.9732356</v>
       </c>
       <c r="AO108" s="34">
-        <f>AO107+AO106</f>
-        <v>2426706876.7739697</v>
+        <f t="shared" si="38"/>
+        <v>2948189091.2297821</v>
       </c>
       <c r="AP108" s="34">
-        <f>AP107+AP106</f>
-        <v>72231228992.151489</v>
+        <f>AP107+AP105</f>
+        <v>90957032718.052704</v>
       </c>
       <c r="AQ108" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AR108" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AS108" s="39">
         <f>AS105</f>
-        <v>6.2714674561575715E-2</v>
+        <v>6.1898664151417059E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL109" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM109" s="61"/>
+      <c r="AL109" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM109" s="74"/>
     </row>
     <row r="110" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="AL110" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AM110" s="41">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>60969181410.72068</v>
+        <v>76506566098.904617</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="AL111" s="40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AM111" s="41">
         <f>AK40</f>
@@ -15934,7 +16320,7 @@
     </row>
     <row r="112" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="AL112" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AM112" s="41">
         <f>AS99</f>
@@ -15943,16 +16329,16 @@
     </row>
     <row r="113" spans="38:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AL113" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AM113" s="41">
         <f>AM110+AM111-AM112</f>
-        <v>46336181410.72068</v>
+        <v>61873566098.904617</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AL114" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AM114" s="48">
         <f>AK34*(1+(5*AQ16))</f>
@@ -15961,34 +16347,34 @@
     </row>
     <row r="115" spans="38:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AL115" s="42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AM115" s="43">
         <f>AM113/AM114</f>
-        <v>119.05871216340546</v>
+        <v>158.98131594824383</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AL116" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AM116" s="59" cm="1">
         <f t="array" ref="AM116">_FV(A1,"Price")</f>
-        <v>164.74</v>
+        <v>165.59</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AL117" s="44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AM117" s="45">
         <f>AM115/AM116-1</f>
-        <v>-0.2772932368374077</v>
+        <v>-3.9909922409301135E-2</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AL118" s="44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AM118" s="46" t="str">
         <f>IF(AM115&gt;AM116,"BUY","SELL")</f>
@@ -16079,8 +16465,9 @@
     <hyperlink ref="AK36" r:id="rId72" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
     <hyperlink ref="AK74" r:id="rId73" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
     <hyperlink ref="AL1" r:id="rId74" display="https://finbox.com/NYSE:WM/explorer/revenue_proj" xr:uid="{A1AF3AD7-3979-FE4F-8F26-5C0249B540C2}"/>
+    <hyperlink ref="AQ106" r:id="rId75" xr:uid="{7F338646-2AB4-604E-8192-EF3831A9CC45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId75"/>
+  <drawing r:id="rId76"/>
 </worksheet>
 </file>
--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A0361B-AA0C-DE4E-B5BD-0BE096D79FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4905F208-833E-EA4E-B735-FB00681A0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -861,62 +861,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -933,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -975,16 +922,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -992,72 +935,18 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,23 +965,61 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2503,7 +2430,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.7190000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2643,9 +2570,9 @@
     <v>Powered by Refinitiv</v>
     <v>175.98</v>
     <v>148.31</v>
-    <v>0.7288</v>
-    <v>-1.32</v>
-    <v>-7.9080000000000001E-3</v>
+    <v>0.73080000000000001</v>
+    <v>2.04</v>
+    <v>1.2235000000000001E-2</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -2653,24 +2580,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>167.72</v>
+    <v>168.94</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45100.998461041403</v>
+    <v>45104.958333344533</v>
     <v>0</v>
-    <v>165.15</v>
-    <v>67364780000</v>
+    <v>166.51</v>
+    <v>68662522626</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>166.88</v>
-    <v>30.282499999999999</v>
-    <v>166.91</v>
-    <v>165.59</v>
+    <v>167.31</v>
+    <v>30.8659</v>
+    <v>166.74</v>
+    <v>168.78</v>
     <v>406816700</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>17</v>
-    <v>1453613</v>
+    <v>2</v>
+    <v>1417275</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2823,10 +2750,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -3243,7 +3170,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
+      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3365,19 +3292,19 @@
       <c r="AK1" s="8">
         <v>2022</v>
       </c>
-      <c r="AL1" s="25">
+      <c r="AL1" s="23">
         <v>2023</v>
       </c>
-      <c r="AM1" s="25">
+      <c r="AM1" s="23">
         <v>2024</v>
       </c>
-      <c r="AN1" s="25">
+      <c r="AN1" s="23">
         <v>2025</v>
       </c>
-      <c r="AO1" s="25">
+      <c r="AO1" s="23">
         <v>2026</v>
       </c>
-      <c r="AP1" s="25">
+      <c r="AP1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3617,19 +3544,19 @@
       <c r="AK3" s="1">
         <v>19698000000</v>
       </c>
-      <c r="AL3" s="26">
+      <c r="AL3" s="24">
         <v>20675000000</v>
       </c>
-      <c r="AM3" s="26">
+      <c r="AM3" s="24">
         <v>21825000000</v>
       </c>
-      <c r="AN3" s="26">
+      <c r="AN3" s="24">
         <v>23364000000</v>
       </c>
-      <c r="AO3" s="26">
+      <c r="AO3" s="24">
         <v>25103000000</v>
       </c>
-      <c r="AP3" s="26">
+      <c r="AP3" s="24">
         <v>26407000000</v>
       </c>
       <c r="AQ3" s="18" t="s">
@@ -5350,21 +5277,21 @@
       <c r="AK16" s="1">
         <v>14232000000</v>
       </c>
-      <c r="AQ16" s="27">
+      <c r="AQ16" s="25">
         <f>(AK35+AJ35+AI35+AH35+AG35)/5</f>
         <v>-1.2439682651333278E-2</v>
       </c>
-      <c r="AR16" s="28">
+      <c r="AR16" s="26">
         <f>AS101/AK3</f>
-        <v>3.4198791755508173</v>
-      </c>
-      <c r="AS16" s="28">
+        <v>3.4857611242765763</v>
+      </c>
+      <c r="AS16" s="26">
         <f>AS101/AK28</f>
-        <v>30.100437890974085</v>
-      </c>
-      <c r="AT16" s="29">
+        <v>30.680305016085789</v>
+      </c>
+      <c r="AT16" s="27">
         <f>AS101/AK107</f>
-        <v>34.563766033863523</v>
+        <v>35.229616534633145</v>
       </c>
     </row>
     <row r="17" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -5717,36 +5644,36 @@
       <c r="AK19" s="10">
         <v>5332000000</v>
       </c>
-      <c r="AL19" s="71">
+      <c r="AL19" s="43">
         <v>5901000000</v>
       </c>
-      <c r="AM19" s="71">
+      <c r="AM19" s="43">
         <v>6352000000</v>
       </c>
-      <c r="AN19" s="71">
+      <c r="AN19" s="43">
         <v>7006000000</v>
       </c>
-      <c r="AO19" s="71">
+      <c r="AO19" s="43">
         <v>7721000000</v>
       </c>
-      <c r="AP19" s="71">
+      <c r="AP19" s="43">
         <v>8135000000</v>
       </c>
-      <c r="AQ19" s="47">
+      <c r="AQ19" s="32">
         <f>AK40-AK56-AK61</f>
         <v>-14633000000</v>
       </c>
-      <c r="AR19" s="63">
+      <c r="AR19" s="35">
         <f>AS101/AL3</f>
-        <v>3.2582723095525998</v>
-      </c>
-      <c r="AS19" s="64">
+        <v>3.3210409976299879</v>
+      </c>
+      <c r="AS19" s="36">
         <f>AS101/AL28</f>
-        <v>27.384056910569107</v>
-      </c>
-      <c r="AT19" s="65">
+        <v>27.911594563414635</v>
+      </c>
+      <c r="AT19" s="37">
         <f>AS101/AL106</f>
-        <v>34.005441696113074</v>
+        <v>34.660536408884404</v>
       </c>
     </row>
     <row r="20" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6030,23 +5957,23 @@
       <c r="AK21" s="2">
         <v>0.2707</v>
       </c>
-      <c r="AL21" s="72">
+      <c r="AL21" s="44">
         <f>AL19/AL3</f>
         <v>0.28541717049576781</v>
       </c>
-      <c r="AM21" s="72">
+      <c r="AM21" s="44">
         <f t="shared" ref="AM21:AP21" si="14">AM19/AM3</f>
         <v>0.29104238258877435</v>
       </c>
-      <c r="AN21" s="72">
+      <c r="AN21" s="44">
         <f t="shared" si="14"/>
         <v>0.29986303715117274</v>
       </c>
-      <c r="AO21" s="72">
+      <c r="AO21" s="44">
         <f t="shared" si="14"/>
         <v>0.30757280006373738</v>
       </c>
-      <c r="AP21" s="72">
+      <c r="AP21" s="44">
         <f t="shared" si="14"/>
         <v>0.30806225621994165</v>
       </c>
@@ -6169,13 +6096,13 @@
       <c r="AK22" s="10">
         <v>3365000000</v>
       </c>
-      <c r="AS22" s="66">
+      <c r="AS22" s="38">
         <f>(-1*AK98)/AS101</f>
-        <v>1.5987582828890706E-2</v>
-      </c>
-      <c r="AT22" s="67">
+        <v>1.5685412635745185E-2</v>
+      </c>
+      <c r="AT22" s="39">
         <f>AK107/AS101</f>
-        <v>2.8932032435940561E-2</v>
+        <v>2.8385208195977125E-2</v>
       </c>
     </row>
     <row r="23" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -6855,19 +6782,19 @@
       <c r="AK28" s="11">
         <v>2238000000</v>
       </c>
-      <c r="AL28" s="68">
+      <c r="AL28" s="40">
         <v>2460000000</v>
       </c>
-      <c r="AM28" s="68">
+      <c r="AM28" s="40">
         <v>2734000000</v>
       </c>
-      <c r="AN28" s="68">
+      <c r="AN28" s="40">
         <v>3068000000</v>
       </c>
-      <c r="AO28" s="68">
+      <c r="AO28" s="40">
         <v>3503000000</v>
       </c>
-      <c r="AP28" s="68">
+      <c r="AP28" s="40">
         <v>3763000000</v>
       </c>
     </row>
@@ -7149,23 +7076,23 @@
       <c r="AK30" s="2">
         <v>0.11360000000000001</v>
       </c>
-      <c r="AL30" s="69">
+      <c r="AL30" s="41">
         <f>AL28/AL3</f>
         <v>0.11898428053204353</v>
       </c>
-      <c r="AM30" s="69">
+      <c r="AM30" s="41">
         <f t="shared" ref="AM30:AP30" si="26">AM28/AM3</f>
         <v>0.12526918671248569</v>
       </c>
-      <c r="AN30" s="69">
+      <c r="AN30" s="41">
         <f t="shared" si="26"/>
         <v>0.13131313131313133</v>
       </c>
-      <c r="AO30" s="69">
+      <c r="AO30" s="41">
         <f t="shared" si="26"/>
         <v>0.13954507429390908</v>
       </c>
-      <c r="AP30" s="69">
+      <c r="AP30" s="41">
         <f t="shared" si="26"/>
         <v>0.14250009467186731</v>
       </c>
@@ -7282,19 +7209,19 @@
       <c r="AK31" s="12">
         <v>5.42</v>
       </c>
-      <c r="AL31" s="70">
+      <c r="AL31" s="42">
         <v>6.05</v>
       </c>
-      <c r="AM31" s="70">
+      <c r="AM31" s="42">
         <v>6.72</v>
       </c>
-      <c r="AN31" s="70">
+      <c r="AN31" s="42">
         <v>7.54</v>
       </c>
-      <c r="AO31" s="70">
+      <c r="AO31" s="42">
         <v>8.61</v>
       </c>
-      <c r="AP31" s="70">
+      <c r="AP31" s="42">
         <v>9.18</v>
       </c>
     </row>
@@ -13242,10 +13169,10 @@
       <c r="AK83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR83" s="75" t="s">
+      <c r="AR83" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="AS83" s="76"/>
+      <c r="AS83" s="69"/>
     </row>
     <row r="84" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13359,10 +13286,10 @@
       <c r="AK84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR84" s="77" t="s">
+      <c r="AR84" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AS84" s="78"/>
+      <c r="AS84" s="70"/>
     </row>
     <row r="85" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13476,10 +13403,10 @@
       <c r="AK85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR85" s="49" t="s">
+      <c r="AR85" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="AS85" s="50">
+      <c r="AS85" s="52">
         <f>AK17</f>
         <v>378000000</v>
       </c>
@@ -13596,10 +13523,10 @@
       <c r="AK86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR86" s="49" t="s">
+      <c r="AR86" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="AS86" s="50">
+      <c r="AS86" s="52">
         <f>AK56</f>
         <v>414000000</v>
       </c>
@@ -13716,10 +13643,10 @@
       <c r="AK87" s="10">
         <v>4536000000</v>
       </c>
-      <c r="AR87" s="49" t="s">
+      <c r="AR87" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="AS87" s="50">
+      <c r="AS87" s="52">
         <f>AK61</f>
         <v>14570000000</v>
       </c>
@@ -13836,10 +13763,10 @@
       <c r="AK88" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR88" s="51" t="s">
+      <c r="AR88" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="AS88" s="52">
+      <c r="AS88" s="54">
         <f>AS85/(AS86+AS87)</f>
         <v>2.5226908702616124E-2</v>
       </c>
@@ -13992,10 +13919,10 @@
         <f t="shared" si="34"/>
         <v>0.13635902122042848</v>
       </c>
-      <c r="AR89" s="49" t="s">
+      <c r="AR89" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="AS89" s="50">
+      <c r="AS89" s="52">
         <f>AK27</f>
         <v>678000000</v>
       </c>
@@ -14112,10 +14039,10 @@
       <c r="AK90" s="1">
         <v>-377000000</v>
       </c>
-      <c r="AR90" s="49" t="s">
+      <c r="AR90" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="AS90" s="50">
+      <c r="AS90" s="52">
         <f>AK25</f>
         <v>2918000000</v>
       </c>
@@ -14232,10 +14159,10 @@
       <c r="AK91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR91" s="51" t="s">
+      <c r="AR91" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="AS91" s="52">
+      <c r="AS91" s="54">
         <f>AS89/AS90</f>
         <v>0.23235092529129542</v>
       </c>
@@ -14472,10 +14399,10 @@
       <c r="AK93" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR93" s="77" t="s">
+      <c r="AR93" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="AS93" s="78"/>
+      <c r="AS93" s="70"/>
     </row>
     <row r="94" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14589,12 +14516,12 @@
       <c r="AK94" s="10">
         <v>-3063000000</v>
       </c>
-      <c r="AR94" s="49" t="s">
+      <c r="AR94" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="AS94" s="62">
+      <c r="AS94" s="55">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.7190000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14709,12 +14636,12 @@
       <c r="AK95" s="1">
         <v>-7328000000</v>
       </c>
-      <c r="AR95" s="57" t="s">
+      <c r="AR95" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="AS95" s="58" cm="1">
+      <c r="AS95" s="57" cm="1">
         <f t="array" ref="AS95">_FV(A1,"Beta")</f>
-        <v>0.7288</v>
+        <v>0.73080000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14829,10 +14756,10 @@
       <c r="AK96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR96" s="49" t="s">
+      <c r="AR96" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="AS96" s="55">
+      <c r="AS96" s="58">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14953,7 +14880,7 @@
       </c>
       <c r="AS97" s="54">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
-        <v>7.1359368000000006E-2</v>
+        <v>7.1398748000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15068,10 +14995,10 @@
       <c r="AK98" s="1">
         <v>-1077000000</v>
       </c>
-      <c r="AR98" s="77" t="s">
+      <c r="AR98" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="AS98" s="78"/>
+      <c r="AS98" s="70"/>
     </row>
     <row r="99" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15185,10 +15112,10 @@
       <c r="AK99" s="1">
         <v>8689000000</v>
       </c>
-      <c r="AR99" s="49" t="s">
+      <c r="AR99" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="AS99" s="50">
+      <c r="AS99" s="52">
         <f>AS86+AS87</f>
         <v>14984000000</v>
       </c>
@@ -15305,12 +15232,12 @@
       <c r="AK100" s="10">
         <v>-1216000000</v>
       </c>
-      <c r="AR100" s="51" t="s">
+      <c r="AR100" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="AS100" s="52">
+      <c r="AS100" s="54">
         <f>AS99/AS103</f>
-        <v>0.18195776549452219</v>
+        <v>0.17913476292369501</v>
       </c>
     </row>
     <row r="101" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15425,12 +15352,12 @@
       <c r="AK101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="AR101" s="57" t="s">
+      <c r="AR101" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="AS101" s="41" cm="1">
+      <c r="AS101" s="30" cm="1">
         <f t="array" ref="AS101">_FV(A1,"Market cap",TRUE)</f>
-        <v>67364780000</v>
+        <v>68662522626</v>
       </c>
     </row>
     <row r="102" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15545,12 +15472,12 @@
       <c r="AK102" s="10">
         <v>251000000</v>
       </c>
-      <c r="AR102" s="51" t="s">
+      <c r="AR102" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="AS102" s="52">
+      <c r="AS102" s="54">
         <f>AS101/AS103</f>
-        <v>0.81804223450547775</v>
+        <v>0.82086523707630499</v>
       </c>
     </row>
     <row r="103" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15668,9 +15595,9 @@
       <c r="AR103" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="AS103" s="56">
+      <c r="AS103" s="59">
         <f>AS99+AS101</f>
-        <v>82348780000</v>
+        <v>83646522626</v>
       </c>
     </row>
     <row r="104" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15785,10 +15712,10 @@
       <c r="AK104" s="11">
         <v>445000000</v>
       </c>
-      <c r="AR104" s="77" t="s">
+      <c r="AR104" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="AS104" s="78"/>
+      <c r="AS104" s="70"/>
     </row>
     <row r="105" spans="1:45" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15930,35 +15857,35 @@
         <f>(AK22*(1-$AS$91))+AK77+AK88+AK81</f>
         <v>2232139136.3947906</v>
       </c>
-      <c r="AL105" s="30">
+      <c r="AL105" s="28">
         <f>AK105*(1+$AD$106)</f>
         <v>2392928819.9486527</v>
       </c>
-      <c r="AM105" s="30">
+      <c r="AM105" s="28">
         <f t="shared" ref="AM105:AP105" si="36">AL105*(1+$AD$106)</f>
         <v>2565300811.2161407</v>
       </c>
-      <c r="AN105" s="30">
+      <c r="AN105" s="28">
         <f t="shared" si="36"/>
         <v>2750089428.9732356</v>
       </c>
-      <c r="AO105" s="30">
+      <c r="AO105" s="28">
         <f t="shared" si="36"/>
         <v>2948189091.2297821</v>
       </c>
-      <c r="AP105" s="30">
+      <c r="AP105" s="28">
         <f t="shared" si="36"/>
         <v>3160558644.4115887</v>
       </c>
-      <c r="AQ105" s="31" t="s">
+      <c r="AQ105" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AR105" s="23" t="s">
+      <c r="AR105" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="AS105" s="24">
+      <c r="AS105" s="61">
         <f>(AS100*AS92)+(AS102*AS97)</f>
-        <v>6.1898664151417059E-2</v>
+        <v>6.2077768892737466E-2</v>
       </c>
     </row>
     <row r="106" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -16106,34 +16033,34 @@
         <f t="shared" si="37"/>
         <v>-0.19926047658175838</v>
       </c>
-      <c r="AL106" s="61">
+      <c r="AL106" s="34">
         <v>1981000000</v>
       </c>
-      <c r="AM106" s="61">
+      <c r="AM106" s="34">
         <v>2798000000</v>
       </c>
-      <c r="AN106" s="61">
+      <c r="AN106" s="34">
         <v>3534000000</v>
       </c>
-      <c r="AO106" s="61">
+      <c r="AO106" s="34">
         <v>4069000000</v>
       </c>
-      <c r="AP106" s="61">
+      <c r="AP106" s="34">
         <v>4278000000</v>
       </c>
-      <c r="AQ106" s="31" t="s">
+      <c r="AQ106" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="AR106" s="32" t="s">
+      <c r="AR106" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="AS106" s="33">
+      <c r="AS106" s="63">
         <f>(SUM(AL4:AP4)/5)</f>
         <v>6.0422774290650502E-2</v>
       </c>
     </row>
     <row r="107" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="60" t="s">
+      <c r="A107" s="33" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16244,139 +16171,139 @@
       <c r="AK107" s="1">
         <v>1949000000</v>
       </c>
-      <c r="AL107" s="31"/>
-      <c r="AM107" s="31"/>
-      <c r="AN107" s="31"/>
-      <c r="AO107" s="31"/>
-      <c r="AP107" s="34">
+      <c r="AL107" s="29"/>
+      <c r="AM107" s="29"/>
+      <c r="AN107" s="29"/>
+      <c r="AO107" s="29"/>
+      <c r="AP107" s="30">
         <f>AP105*(1+AS107)/(AS108-AS107)</f>
-        <v>87796474073.641113</v>
-      </c>
-      <c r="AQ107" s="35" t="s">
+        <v>87372371835.362061</v>
+      </c>
+      <c r="AQ107" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="AR107" s="36" t="s">
+      <c r="AR107" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="AS107" s="37">
+      <c r="AS107" s="65">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL108" s="34">
+      <c r="AL108" s="30">
         <f t="shared" ref="AL108:AO108" si="38">AL107+AL105</f>
         <v>2392928819.9486527</v>
       </c>
-      <c r="AM108" s="34">
+      <c r="AM108" s="30">
         <f t="shared" si="38"/>
         <v>2565300811.2161407</v>
       </c>
-      <c r="AN108" s="34">
+      <c r="AN108" s="30">
         <f t="shared" si="38"/>
         <v>2750089428.9732356</v>
       </c>
-      <c r="AO108" s="34">
+      <c r="AO108" s="30">
         <f t="shared" si="38"/>
         <v>2948189091.2297821</v>
       </c>
-      <c r="AP108" s="34">
+      <c r="AP108" s="30">
         <f>AP107+AP105</f>
-        <v>90957032718.052704</v>
-      </c>
-      <c r="AQ108" s="35" t="s">
+        <v>90532930479.773651</v>
+      </c>
+      <c r="AQ108" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="AR108" s="38" t="s">
+      <c r="AR108" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="AS108" s="39">
+      <c r="AS108" s="63">
         <f>AS105</f>
-        <v>6.1898664151417059E-2</v>
+        <v>6.2077768892737466E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL109" s="73" t="s">
+      <c r="AL109" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="AM109" s="74"/>
+      <c r="AM109" s="67"/>
     </row>
     <row r="110" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL110" s="40" t="s">
+      <c r="AL110" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AM110" s="41">
+      <c r="AM110" s="30">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>76506566098.904617</v>
+        <v>76132087560.039612</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL111" s="40" t="s">
+      <c r="AL111" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="AM111" s="41">
+      <c r="AM111" s="30">
         <f>AK40</f>
         <v>351000000</v>
       </c>
     </row>
     <row r="112" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL112" s="40" t="s">
+      <c r="AL112" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="AM112" s="41">
+      <c r="AM112" s="30">
         <f>AS99</f>
         <v>14984000000</v>
       </c>
     </row>
     <row r="113" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL113" s="40" t="s">
+      <c r="AL113" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="AM113" s="41">
+      <c r="AM113" s="30">
         <f>AM110+AM111-AM112</f>
-        <v>61873566098.904617</v>
+        <v>61499087560.039612</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL114" s="40" t="s">
+      <c r="AL114" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="AM114" s="48">
+      <c r="AM114" s="45">
         <f>AK34*(1+(5*AQ16))</f>
         <v>389187658.49848342</v>
       </c>
     </row>
     <row r="115" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL115" s="42" t="s">
+      <c r="AL115" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="AM115" s="43">
+      <c r="AM115" s="47">
         <f>AM113/AM114</f>
-        <v>158.98131594824383</v>
+        <v>158.01911036261512</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL116" s="40" t="s">
+      <c r="AL116" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="AM116" s="59" cm="1">
+      <c r="AM116" s="48" cm="1">
         <f t="array" ref="AM116">_FV(A1,"Price")</f>
-        <v>165.59</v>
+        <v>168.78</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL117" s="44" t="s">
+      <c r="AL117" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="AM117" s="45">
+      <c r="AM117" s="49">
         <f>AM115/AM116-1</f>
-        <v>-3.9909922409301135E-2</v>
+        <v>-6.3756900328148292E-2</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL118" s="44" t="s">
+      <c r="AL118" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="AM118" s="46" t="str">
+      <c r="AM118" s="50" t="str">
         <f>IF(AM115&gt;AM116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4905F208-833E-EA4E-B735-FB00681A0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9615DE3-220A-5145-A7C9-7E9244070238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -880,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -925,12 +928,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1010,6 +1007,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,10 +1118,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.932338308457712E-2"/>
-          <c:y val="0.12838555040224311"/>
-          <c:w val="0.87822222222222224"/>
-          <c:h val="0.70625991789316067"/>
+          <c:x val="9.1263681592039791E-2"/>
+          <c:y val="0.18680809120422875"/>
+          <c:w val="0.85434162520729684"/>
+          <c:h val="0.60499410254035446"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2352,13 +2352,13 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>1571624</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2393,9 +2393,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2404,19 +2402,24 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
-      <sheetName val="Private Companies"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Top 12"/>
+      <sheetName val="Still Researching"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0119999999999996E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2427,22 +2430,13 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="8">
-          <cell r="C8">
-            <v>3.7190000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2570,9 +2564,11 @@
     <v>Powered by Refinitiv</v>
     <v>175.98</v>
     <v>148.31</v>
-    <v>0.73080000000000001</v>
-    <v>2.04</v>
-    <v>1.2235000000000001E-2</v>
+    <v>0.71689999999999998</v>
+    <v>-1.67</v>
+    <v>-1.0340999999999999E-2</v>
+    <v>0.73</v>
+    <v>4.5669999999999999E-3</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -2580,24 +2576,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>168.94</v>
+    <v>162.13</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45104.958333344533</v>
+    <v>45148.999022522657</v>
     <v>0</v>
-    <v>166.51</v>
-    <v>68662522626</v>
+    <v>159.29</v>
+    <v>64740643902</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>167.31</v>
-    <v>30.8659</v>
-    <v>166.74</v>
-    <v>168.78</v>
-    <v>406816700</v>
+    <v>161.01</v>
+    <v>28.710599999999999</v>
+    <v>161.5</v>
+    <v>159.83000000000001</v>
+    <v>160.56</v>
+    <v>405059400</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>2</v>
-    <v>1417275</v>
+    <v>1427500</v>
+    <v>1551111</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2629,6 +2626,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2649,6 +2648,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2665,7 +2665,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2676,13 +2676,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2748,13 +2751,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2799,6 +2808,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2806,6 +2818,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3167,10 +3182,10 @@
   <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AG91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
+      <selection pane="bottomRight" activeCell="AP102" sqref="AP102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3577,143 +3592,143 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="67">
         <f>(C3/B3)-1</f>
         <v>0.11764705882352944</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="67">
         <f>(D3/C3)-1</f>
         <v>0.36842105263157898</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="67">
         <f>(E3/D3)-1</f>
         <v>0.42307692307692313</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="67">
         <f t="shared" ref="F4:AP4" si="0">(F3/E3)-1</f>
         <v>3.9459459459459456</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="67">
         <f t="shared" si="0"/>
         <v>1.8524590163934427</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="67">
         <f t="shared" si="0"/>
         <v>0.49616858237547889</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="67">
         <f t="shared" si="0"/>
         <v>1.2560819462227912</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="67">
         <f t="shared" si="0"/>
         <v>1.5942111237230421</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="67">
         <f t="shared" si="0"/>
         <v>1.8733318748632684</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="67">
         <f t="shared" si="0"/>
         <v>0.9901020252779047</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="67">
         <f t="shared" si="0"/>
         <v>3.8601652766087691</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="67">
         <f t="shared" si="0"/>
         <v>3.3329397410162498E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="67">
         <f t="shared" si="0"/>
         <v>-4.8366331731025558E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="67">
         <f t="shared" si="0"/>
         <v>-9.365994236311237E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="67">
         <f t="shared" si="0"/>
         <v>-1.5898251192368873E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="67">
         <f t="shared" si="0"/>
         <v>3.8772213247172838E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="67">
         <f t="shared" si="0"/>
         <v>8.1389320891653627E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="67">
         <f t="shared" si="0"/>
         <v>4.4582933844678818E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="67">
         <f t="shared" si="0"/>
         <v>2.2104941104482245E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="67">
         <f t="shared" si="0"/>
         <v>-3.9661752600463895E-3</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="67">
         <f t="shared" si="0"/>
         <v>5.860255447032392E-3</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="67">
         <f t="shared" si="0"/>
         <v>-0.11928592769644453</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="67">
         <f t="shared" si="0"/>
         <v>6.1402764820625899E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="67">
         <f t="shared" si="0"/>
         <v>6.8957251298441768E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="67">
         <f t="shared" si="0"/>
         <v>2.0257138585737744E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="67">
         <f t="shared" si="0"/>
         <v>2.4470657191002942E-2</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="67">
         <f t="shared" si="0"/>
         <v>9.2970035042561072E-4</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="67">
         <f t="shared" si="0"/>
         <v>-7.3949699914261258E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="67">
         <f t="shared" si="0"/>
         <v>4.9996142272972666E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="67">
         <f t="shared" si="0"/>
         <v>6.4369167462708488E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="67">
         <f t="shared" si="0"/>
         <v>2.9616845012081505E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="67">
         <f t="shared" si="0"/>
         <v>3.6274641276652808E-2</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="67">
         <f t="shared" si="0"/>
         <v>-1.5334843092850159E-2</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="67">
         <f t="shared" si="0"/>
         <v>0.17827572611381259</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="67">
         <f t="shared" si="0"/>
         <v>9.8544420277731248E-2</v>
       </c>
@@ -5281,17 +5296,17 @@
         <f>(AK35+AJ35+AI35+AH35+AG35)/5</f>
         <v>-1.2439682651333278E-2</v>
       </c>
-      <c r="AR16" s="26">
+      <c r="AR16" s="33">
         <f>AS101/AK3</f>
-        <v>3.4857611242765763</v>
-      </c>
-      <c r="AS16" s="26">
+        <v>3.2866607727688089</v>
+      </c>
+      <c r="AS16" s="33">
         <f>AS101/AK28</f>
-        <v>30.680305016085789</v>
-      </c>
-      <c r="AT16" s="27">
+        <v>28.927901654155495</v>
+      </c>
+      <c r="AT16" s="35">
         <f>AS101/AK107</f>
-        <v>35.229616534633145</v>
+        <v>33.217364752180607</v>
       </c>
     </row>
     <row r="17" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -5644,36 +5659,36 @@
       <c r="AK19" s="10">
         <v>5332000000</v>
       </c>
-      <c r="AL19" s="43">
+      <c r="AL19" s="41">
         <v>5901000000</v>
       </c>
-      <c r="AM19" s="43">
+      <c r="AM19" s="41">
         <v>6352000000</v>
       </c>
-      <c r="AN19" s="43">
+      <c r="AN19" s="41">
         <v>7006000000</v>
       </c>
-      <c r="AO19" s="43">
+      <c r="AO19" s="41">
         <v>7721000000</v>
       </c>
-      <c r="AP19" s="43">
+      <c r="AP19" s="41">
         <v>8135000000</v>
       </c>
-      <c r="AQ19" s="32">
+      <c r="AQ19" s="30">
         <f>AK40-AK56-AK61</f>
         <v>-14633000000</v>
       </c>
-      <c r="AR19" s="35">
+      <c r="AR19" s="33">
         <f>AS101/AL3</f>
-        <v>3.3210409976299879</v>
-      </c>
-      <c r="AS19" s="36">
+        <v>3.1313491609189841</v>
+      </c>
+      <c r="AS19" s="34">
         <f>AS101/AL28</f>
-        <v>27.911594563414635</v>
-      </c>
-      <c r="AT19" s="37">
+        <v>26.317334919512195</v>
+      </c>
+      <c r="AT19" s="35">
         <f>AS101/AL106</f>
-        <v>34.660536408884404</v>
+        <v>30.266780692847124</v>
       </c>
     </row>
     <row r="20" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5957,23 +5972,23 @@
       <c r="AK21" s="2">
         <v>0.2707</v>
       </c>
-      <c r="AL21" s="44">
+      <c r="AL21" s="42">
         <f>AL19/AL3</f>
         <v>0.28541717049576781</v>
       </c>
-      <c r="AM21" s="44">
+      <c r="AM21" s="42">
         <f t="shared" ref="AM21:AP21" si="14">AM19/AM3</f>
         <v>0.29104238258877435</v>
       </c>
-      <c r="AN21" s="44">
+      <c r="AN21" s="42">
         <f t="shared" si="14"/>
         <v>0.29986303715117274</v>
       </c>
-      <c r="AO21" s="44">
+      <c r="AO21" s="42">
         <f t="shared" si="14"/>
         <v>0.30757280006373738</v>
       </c>
-      <c r="AP21" s="44">
+      <c r="AP21" s="42">
         <f t="shared" si="14"/>
         <v>0.30806225621994165</v>
       </c>
@@ -6096,13 +6111,13 @@
       <c r="AK22" s="10">
         <v>3365000000</v>
       </c>
-      <c r="AS22" s="38">
+      <c r="AS22" s="36">
         <f>(-1*AK98)/AS101</f>
-        <v>1.5685412635745185E-2</v>
-      </c>
-      <c r="AT22" s="39">
+        <v>1.6635608407452505E-2</v>
+      </c>
+      <c r="AT22" s="37">
         <f>AK107/AS101</f>
-        <v>2.8385208195977125E-2</v>
+        <v>3.0104736105965584E-2</v>
       </c>
     </row>
     <row r="23" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -6782,19 +6797,19 @@
       <c r="AK28" s="11">
         <v>2238000000</v>
       </c>
-      <c r="AL28" s="40">
+      <c r="AL28" s="38">
         <v>2460000000</v>
       </c>
-      <c r="AM28" s="40">
+      <c r="AM28" s="38">
         <v>2734000000</v>
       </c>
-      <c r="AN28" s="40">
+      <c r="AN28" s="38">
         <v>3068000000</v>
       </c>
-      <c r="AO28" s="40">
+      <c r="AO28" s="38">
         <v>3503000000</v>
       </c>
-      <c r="AP28" s="40">
+      <c r="AP28" s="38">
         <v>3763000000</v>
       </c>
     </row>
@@ -7076,23 +7091,23 @@
       <c r="AK30" s="2">
         <v>0.11360000000000001</v>
       </c>
-      <c r="AL30" s="41">
+      <c r="AL30" s="39">
         <f>AL28/AL3</f>
         <v>0.11898428053204353</v>
       </c>
-      <c r="AM30" s="41">
+      <c r="AM30" s="39">
         <f t="shared" ref="AM30:AP30" si="26">AM28/AM3</f>
         <v>0.12526918671248569</v>
       </c>
-      <c r="AN30" s="41">
+      <c r="AN30" s="39">
         <f t="shared" si="26"/>
         <v>0.13131313131313133</v>
       </c>
-      <c r="AO30" s="41">
+      <c r="AO30" s="39">
         <f t="shared" si="26"/>
         <v>0.13954507429390908</v>
       </c>
-      <c r="AP30" s="41">
+      <c r="AP30" s="39">
         <f t="shared" si="26"/>
         <v>0.14250009467186731</v>
       </c>
@@ -7209,19 +7224,19 @@
       <c r="AK31" s="12">
         <v>5.42</v>
       </c>
-      <c r="AL31" s="42">
+      <c r="AL31" s="40">
         <v>6.05</v>
       </c>
-      <c r="AM31" s="42">
+      <c r="AM31" s="40">
         <v>6.72</v>
       </c>
-      <c r="AN31" s="42">
+      <c r="AN31" s="40">
         <v>7.54</v>
       </c>
-      <c r="AO31" s="42">
+      <c r="AO31" s="40">
         <v>8.61</v>
       </c>
-      <c r="AP31" s="42">
+      <c r="AP31" s="40">
         <v>9.18</v>
       </c>
     </row>
@@ -13169,10 +13184,10 @@
       <c r="AK83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR83" s="68" t="s">
+      <c r="AR83" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="AS83" s="69"/>
+      <c r="AS83" s="70"/>
     </row>
     <row r="84" spans="1:45" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13286,10 +13301,10 @@
       <c r="AK84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR84" s="70" t="s">
+      <c r="AR84" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="AS84" s="70"/>
+      <c r="AS84" s="71"/>
     </row>
     <row r="85" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13403,10 +13418,10 @@
       <c r="AK85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR85" s="51" t="s">
+      <c r="AR85" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="AS85" s="52">
+      <c r="AS85" s="50">
         <f>AK17</f>
         <v>378000000</v>
       </c>
@@ -13523,10 +13538,10 @@
       <c r="AK86" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR86" s="51" t="s">
+      <c r="AR86" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="AS86" s="52">
+      <c r="AS86" s="50">
         <f>AK56</f>
         <v>414000000</v>
       </c>
@@ -13643,10 +13658,10 @@
       <c r="AK87" s="10">
         <v>4536000000</v>
       </c>
-      <c r="AR87" s="51" t="s">
+      <c r="AR87" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="AS87" s="52">
+      <c r="AS87" s="50">
         <f>AK61</f>
         <v>14570000000</v>
       </c>
@@ -13763,10 +13778,10 @@
       <c r="AK88" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR88" s="53" t="s">
+      <c r="AR88" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="AS88" s="54">
+      <c r="AS88" s="52">
         <f>AS85/(AS86+AS87)</f>
         <v>2.5226908702616124E-2</v>
       </c>
@@ -13919,10 +13934,10 @@
         <f t="shared" si="34"/>
         <v>0.13635902122042848</v>
       </c>
-      <c r="AR89" s="51" t="s">
+      <c r="AR89" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="AS89" s="52">
+      <c r="AS89" s="50">
         <f>AK27</f>
         <v>678000000</v>
       </c>
@@ -14039,10 +14054,10 @@
       <c r="AK90" s="1">
         <v>-377000000</v>
       </c>
-      <c r="AR90" s="51" t="s">
+      <c r="AR90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AS90" s="52">
+      <c r="AS90" s="50">
         <f>AK25</f>
         <v>2918000000</v>
       </c>
@@ -14159,10 +14174,10 @@
       <c r="AK91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR91" s="53" t="s">
+      <c r="AR91" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="AS91" s="54">
+      <c r="AS91" s="52">
         <f>AS89/AS90</f>
         <v>0.23235092529129542</v>
       </c>
@@ -14279,10 +14294,10 @@
       <c r="AK92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR92" s="53" t="s">
+      <c r="AR92" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="AS92" s="54">
+      <c r="AS92" s="52">
         <f>AS88*(1-AS91)</f>
         <v>1.9365413123324234E-2</v>
       </c>
@@ -14399,10 +14414,10 @@
       <c r="AK93" s="1">
         <v>-2686000000</v>
       </c>
-      <c r="AR93" s="70" t="s">
+      <c r="AR93" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="AS93" s="70"/>
+      <c r="AS93" s="71"/>
     </row>
     <row r="94" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14516,12 +14531,12 @@
       <c r="AK94" s="10">
         <v>-3063000000</v>
       </c>
-      <c r="AR94" s="51" t="s">
+      <c r="AR94" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AS94" s="55">
+      <c r="AS94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7190000000000001E-2</v>
+        <v>4.0119999999999996E-2</v>
       </c>
     </row>
     <row r="95" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14636,12 +14651,12 @@
       <c r="AK95" s="1">
         <v>-7328000000</v>
       </c>
-      <c r="AR95" s="56" t="s">
+      <c r="AR95" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="AS95" s="57" cm="1">
+      <c r="AS95" s="55" cm="1">
         <f t="array" ref="AS95">_FV(A1,"Beta")</f>
-        <v>0.73080000000000001</v>
+        <v>0.71689999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -14756,10 +14771,10 @@
       <c r="AK96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR96" s="51" t="s">
+      <c r="AR96" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="AS96" s="58">
+      <c r="AS96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14875,12 +14890,12 @@
       <c r="AK97" s="1">
         <v>-1500000000</v>
       </c>
-      <c r="AR97" s="53" t="s">
+      <c r="AR97" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="AS97" s="54">
+      <c r="AS97" s="52">
         <f>(AS94)+((AS95)*(AS96-AS94))</f>
-        <v>7.1398748000000012E-2</v>
+        <v>7.1577572000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -14995,10 +15010,10 @@
       <c r="AK98" s="1">
         <v>-1077000000</v>
       </c>
-      <c r="AR98" s="70" t="s">
+      <c r="AR98" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="AS98" s="70"/>
+      <c r="AS98" s="71"/>
     </row>
     <row r="99" spans="1:45" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15112,10 +15127,10 @@
       <c r="AK99" s="1">
         <v>8689000000</v>
       </c>
-      <c r="AR99" s="51" t="s">
+      <c r="AR99" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="AS99" s="52">
+      <c r="AS99" s="50">
         <f>AS86+AS87</f>
         <v>14984000000</v>
       </c>
@@ -15232,12 +15247,12 @@
       <c r="AK100" s="10">
         <v>-1216000000</v>
       </c>
-      <c r="AR100" s="53" t="s">
+      <c r="AR100" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="AS100" s="54">
+      <c r="AS100" s="52">
         <f>AS99/AS103</f>
-        <v>0.17913476292369501</v>
+        <v>0.18794690407672182</v>
       </c>
     </row>
     <row r="101" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15352,12 +15367,12 @@
       <c r="AK101" s="1">
         <v>-6000000</v>
       </c>
-      <c r="AR101" s="56" t="s">
+      <c r="AR101" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="AS101" s="30" cm="1">
+      <c r="AS101" s="28" cm="1">
         <f t="array" ref="AS101">_FV(A1,"Market cap",TRUE)</f>
-        <v>68662522626</v>
+        <v>64740643902</v>
       </c>
     </row>
     <row r="102" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15472,12 +15487,12 @@
       <c r="AK102" s="10">
         <v>251000000</v>
       </c>
-      <c r="AR102" s="53" t="s">
+      <c r="AR102" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="AS102" s="54">
+      <c r="AS102" s="52">
         <f>AS101/AS103</f>
-        <v>0.82086523707630499</v>
+        <v>0.81205309592327812</v>
       </c>
     </row>
     <row r="103" spans="1:45" ht="20" x14ac:dyDescent="0.25">
@@ -15592,12 +15607,15 @@
       <c r="AK103" s="1">
         <v>194000000</v>
       </c>
-      <c r="AR103" s="53" t="s">
+      <c r="AQ103" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR103" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="AS103" s="59">
+      <c r="AS103" s="57">
         <f>AS99+AS101</f>
-        <v>83646522626</v>
+        <v>79724643902</v>
       </c>
     </row>
     <row r="104" spans="1:45" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15712,10 +15730,34 @@
       <c r="AK104" s="11">
         <v>445000000</v>
       </c>
-      <c r="AR104" s="70" t="s">
+      <c r="AL104" s="65">
+        <f>(AL106/AK105)-1</f>
+        <v>-4.1726402658403772E-2</v>
+      </c>
+      <c r="AM104" s="65">
+        <f>(AM106/AL106)-1</f>
+        <v>0.21692379616643298</v>
+      </c>
+      <c r="AN104" s="65">
+        <f>(AN106/AM106)-1</f>
+        <v>0.25547445255474455</v>
+      </c>
+      <c r="AO104" s="65">
+        <f>(AO106/AN106)-1</f>
+        <v>0.1585067319461444</v>
+      </c>
+      <c r="AP104" s="65">
+        <f>(AP106/AO106)-1</f>
+        <v>7.1315372424722634E-2</v>
+      </c>
+      <c r="AQ104" s="65">
+        <f>SUM(AL104:AP104)/5</f>
+        <v>0.13209879008672815</v>
+      </c>
+      <c r="AR104" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="AS104" s="70"/>
+      <c r="AS104" s="71"/>
     </row>
     <row r="105" spans="1:45" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15857,35 +15899,35 @@
         <f>(AK22*(1-$AS$91))+AK77+AK88+AK81</f>
         <v>2232139136.3947906</v>
       </c>
-      <c r="AL105" s="28">
+      <c r="AL105" s="26">
         <f>AK105*(1+$AD$106)</f>
         <v>2392928819.9486527</v>
       </c>
-      <c r="AM105" s="28">
+      <c r="AM105" s="26">
         <f t="shared" ref="AM105:AP105" si="36">AL105*(1+$AD$106)</f>
         <v>2565300811.2161407</v>
       </c>
-      <c r="AN105" s="28">
+      <c r="AN105" s="26">
         <f t="shared" si="36"/>
         <v>2750089428.9732356</v>
       </c>
-      <c r="AO105" s="28">
+      <c r="AO105" s="26">
         <f t="shared" si="36"/>
         <v>2948189091.2297821</v>
       </c>
-      <c r="AP105" s="28">
+      <c r="AP105" s="26">
         <f t="shared" si="36"/>
         <v>3160558644.4115887</v>
       </c>
-      <c r="AQ105" s="29" t="s">
+      <c r="AQ105" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="AR105" s="60" t="s">
+      <c r="AR105" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="AS105" s="61">
+      <c r="AS105" s="59">
         <f>(AS100*AS92)+(AS102*AS97)</f>
-        <v>6.2077768892737466E-2</v>
+        <v>6.176445838396686E-2</v>
       </c>
     </row>
     <row r="106" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -16033,34 +16075,34 @@
         <f t="shared" si="37"/>
         <v>-0.19926047658175838</v>
       </c>
-      <c r="AL106" s="34">
-        <v>1981000000</v>
-      </c>
-      <c r="AM106" s="34">
-        <v>2798000000</v>
-      </c>
-      <c r="AN106" s="34">
-        <v>3534000000</v>
-      </c>
-      <c r="AO106" s="34">
-        <v>4069000000</v>
-      </c>
-      <c r="AP106" s="34">
-        <v>4278000000</v>
-      </c>
-      <c r="AQ106" s="29" t="s">
+      <c r="AL106" s="32">
+        <v>2139000000</v>
+      </c>
+      <c r="AM106" s="32">
+        <v>2603000000</v>
+      </c>
+      <c r="AN106" s="32">
+        <v>3268000000</v>
+      </c>
+      <c r="AO106" s="32">
+        <v>3786000000</v>
+      </c>
+      <c r="AP106" s="32">
+        <v>4056000000</v>
+      </c>
+      <c r="AQ106" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="AR106" s="62" t="s">
+      <c r="AR106" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="AS106" s="63">
+      <c r="AS106" s="61">
         <f>(SUM(AL4:AP4)/5)</f>
         <v>6.0422774290650502E-2</v>
       </c>
     </row>
     <row r="107" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="31" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16171,141 +16213,141 @@
       <c r="AK107" s="1">
         <v>1949000000</v>
       </c>
-      <c r="AL107" s="29"/>
-      <c r="AM107" s="29"/>
-      <c r="AN107" s="29"/>
-      <c r="AO107" s="29"/>
-      <c r="AP107" s="30">
-        <f>AP105*(1+AS107)/(AS108-AS107)</f>
-        <v>87372371835.362061</v>
-      </c>
-      <c r="AQ107" s="31" t="s">
+      <c r="AL107" s="27"/>
+      <c r="AM107" s="27"/>
+      <c r="AN107" s="27"/>
+      <c r="AO107" s="27"/>
+      <c r="AP107" s="66">
+        <f>AP106*(1+AS107)/(AS108-AS107)</f>
+        <v>113082041263.33763</v>
+      </c>
+      <c r="AQ107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AR107" s="64" t="s">
+      <c r="AR107" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="AS107" s="65">
+      <c r="AS107" s="63">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL108" s="30">
-        <f t="shared" ref="AL108:AO108" si="38">AL107+AL105</f>
-        <v>2392928819.9486527</v>
-      </c>
-      <c r="AM108" s="30">
+      <c r="AL108" s="66">
+        <f t="shared" ref="AL108:AO108" si="38">AL107+AL106</f>
+        <v>2139000000</v>
+      </c>
+      <c r="AM108" s="66">
         <f t="shared" si="38"/>
-        <v>2565300811.2161407</v>
-      </c>
-      <c r="AN108" s="30">
+        <v>2603000000</v>
+      </c>
+      <c r="AN108" s="66">
         <f t="shared" si="38"/>
-        <v>2750089428.9732356</v>
-      </c>
-      <c r="AO108" s="30">
+        <v>3268000000</v>
+      </c>
+      <c r="AO108" s="66">
         <f t="shared" si="38"/>
-        <v>2948189091.2297821</v>
-      </c>
-      <c r="AP108" s="30">
-        <f>AP107+AP105</f>
-        <v>90532930479.773651</v>
-      </c>
-      <c r="AQ108" s="31" t="s">
+        <v>3786000000</v>
+      </c>
+      <c r="AP108" s="66">
+        <f>AP107+AP106</f>
+        <v>117138041263.33763</v>
+      </c>
+      <c r="AQ108" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="AR108" s="66" t="s">
+      <c r="AR108" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="AS108" s="63">
+      <c r="AS108" s="61">
         <f>AS105</f>
-        <v>6.2077768892737466E-2</v>
+        <v>6.176445838396686E-2</v>
       </c>
     </row>
     <row r="109" spans="1:45" ht="19" x14ac:dyDescent="0.25">
-      <c r="AL109" s="67" t="s">
+      <c r="AL109" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="AM109" s="67"/>
+      <c r="AM109" s="68"/>
     </row>
     <row r="110" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL110" s="45" t="s">
+      <c r="AL110" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="AM110" s="30">
+      <c r="AM110" s="28">
         <f>NPV(AS108,AL108,AM108,AN108,AO108,AP108)</f>
-        <v>76132087560.039612</v>
+        <v>96840197680.845779</v>
       </c>
     </row>
     <row r="111" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL111" s="45" t="s">
+      <c r="AL111" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="AM111" s="30">
+      <c r="AM111" s="28">
         <f>AK40</f>
         <v>351000000</v>
       </c>
     </row>
     <row r="112" spans="1:45" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL112" s="45" t="s">
+      <c r="AL112" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="AM112" s="30">
+      <c r="AM112" s="28">
         <f>AS99</f>
         <v>14984000000</v>
       </c>
     </row>
     <row r="113" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL113" s="45" t="s">
+      <c r="AL113" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="AM113" s="30">
+      <c r="AM113" s="28">
         <f>AM110+AM111-AM112</f>
-        <v>61499087560.039612</v>
+        <v>82207197680.845779</v>
       </c>
     </row>
     <row r="114" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL114" s="45" t="s">
+      <c r="AL114" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="AM114" s="45">
+      <c r="AM114" s="43">
         <f>AK34*(1+(5*AQ16))</f>
         <v>389187658.49848342</v>
       </c>
     </row>
     <row r="115" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL115" s="46" t="s">
+      <c r="AL115" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="AM115" s="47">
+      <c r="AM115" s="45">
         <f>AM113/AM114</f>
-        <v>158.01911036261512</v>
+        <v>211.22765813799853</v>
       </c>
     </row>
     <row r="116" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL116" s="45" t="s">
+      <c r="AL116" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="AM116" s="48" cm="1">
+      <c r="AM116" s="46" cm="1">
         <f t="array" ref="AM116">_FV(A1,"Price")</f>
-        <v>168.78</v>
+        <v>159.83000000000001</v>
       </c>
     </row>
     <row r="117" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL117" s="46" t="s">
+      <c r="AL117" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="AM117" s="49">
+      <c r="AM117" s="47">
         <f>AM115/AM116-1</f>
-        <v>-6.3756900328148292E-2</v>
+        <v>0.32157703896639256</v>
       </c>
     </row>
     <row r="118" spans="38:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AL118" s="46" t="s">
+      <c r="AL118" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="AM118" s="50" t="str">
+      <c r="AM118" s="48" t="str">
         <f>IF(AM115&gt;AM116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Industrials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65A13B-3D05-1A48-86B8-1601386796D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF25E5AD-D6D7-CE4C-B4BF-80BA3FC986BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1586,7 +1586,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5579999999999996E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1725,9 +1725,9 @@
     <v>Powered by Refinitiv</v>
     <v>173.71</v>
     <v>148.31</v>
-    <v>0.72119999999999995</v>
-    <v>-0.28999999999999998</v>
-    <v>-1.7649999999999999E-3</v>
+    <v>0.71779999999999999</v>
+    <v>1.27</v>
+    <v>7.6119999999999998E-3</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -1735,24 +1735,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>164.77</v>
+    <v>169.11799999999999</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45231.999280659373</v>
+    <v>45233.996791284379</v>
     <v>0</v>
-    <v>163.03</v>
-    <v>66071276616</v>
+    <v>167.31</v>
+    <v>67714600000</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>164.07</v>
-    <v>28.992699999999999</v>
-    <v>164.33</v>
-    <v>164.04</v>
+    <v>168.07</v>
+    <v>29.713799999999999</v>
+    <v>166.85</v>
+    <v>168.12</v>
     <v>402775400</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>16</v>
-    <v>1633699</v>
+    <v>160</v>
+    <v>1622310</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2346,9 +2346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15664,8 +15664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A525FE4D-10C8-4942-ABD3-767141393710}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15714,7 +15714,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>66071276616</v>
+        <v>67714600000</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -15742,7 +15742,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>113202600626.98981</v>
+        <v>115052134680.38498</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -15787,14 +15787,14 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>96253466803.956955</v>
+        <v>97884071099.46907</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="54">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.6724362788116769E-2</v>
+        <v>1.631848966101845E-2</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>212</v>
@@ -15837,14 +15837,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>81029466803.956955</v>
+        <v>82660071099.46907</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>164.04</v>
+        <v>168.12</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>219</v>
@@ -15862,7 +15862,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>3.2387880694117648</v>
+        <v>3.319343137254902</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>221</v>
@@ -15890,14 +15890,14 @@
       </c>
       <c r="I6" s="61">
         <f>N25</f>
-        <v>6.4369236884275538E-2</v>
+        <v>6.3736352110117037E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="62">
         <f>I5/G4</f>
-        <v>211.3139308716712</v>
+        <v>215.56632715381076</v>
       </c>
       <c r="L6" s="63" t="s">
         <v>225</v>
@@ -15915,14 +15915,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>27.178641141916906</v>
+        <v>27.854627725215959</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="68">
         <f>F14/A3</f>
-        <v>3.2555750549537708E-2</v>
+        <v>3.1765675349186145E-2</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>228</v>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>0.28818538692801265</v>
+        <v>0.28221703041762281</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>231</v>
@@ -16254,7 +16254,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5579999999999996E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.72119999999999995</v>
+        <v>0.71779999999999999</v>
       </c>
       <c r="P15" s="46"/>
     </row>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.4172299999999997E-2</v>
+        <v>7.3157876000000011E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -16434,7 +16434,7 @@
       </c>
       <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>66071276616</v>
+        <v>67714600000</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -16456,7 +16456,7 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>81439276616</v>
+        <v>83082600000</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -16479,7 +16479,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>0.18870501603867046</v>
+        <v>0.18497254539458322</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -16502,7 +16502,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.8112949839613296</v>
+        <v>0.81502745460541681</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -16542,7 +16542,7 @@
       <c r="M25" s="85"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.4369236884275538E-2</v>
+        <v>6.3736352110117037E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="46"/>

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF25E5AD-D6D7-CE4C-B4BF-80BA3FC986BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFA6F79-0F7A-404B-83EF-C624C2351E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1586,7 +1586,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5579999999999996E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1725,9 +1725,11 @@
     <v>Powered by Refinitiv</v>
     <v>173.71</v>
     <v>148.31</v>
-    <v>0.71779999999999999</v>
-    <v>1.27</v>
-    <v>7.6119999999999998E-3</v>
+    <v>0.71930000000000005</v>
+    <v>-0.21</v>
+    <v>-1.2330000000000002E-3</v>
+    <v>0.04</v>
+    <v>2.352E-4</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -1735,24 +1737,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>169.11799999999999</v>
+    <v>170.36</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45233.996791284379</v>
+    <v>45239.914026712497</v>
     <v>0</v>
-    <v>167.31</v>
-    <v>67714600000</v>
+    <v>169.43</v>
+    <v>68495984524</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>168.07</v>
-    <v>29.713799999999999</v>
-    <v>166.85</v>
-    <v>168.12</v>
+    <v>170.13</v>
+    <v>30.056699999999999</v>
+    <v>170.27</v>
+    <v>170.06</v>
+    <v>170.1</v>
     <v>402775400</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>160</v>
-    <v>1622310</v>
+    <v>1360644</v>
+    <v>1617981</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -1784,6 +1787,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1804,6 +1809,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1820,7 +1826,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1831,13 +1837,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1903,13 +1912,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1954,6 +1969,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1961,6 +1979,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2346,9 +2367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K12" sqref="K12"/>
+      <selection pane="topRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15664,8 +15685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A525FE4D-10C8-4942-ABD3-767141393710}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15714,7 +15735,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>67714600000</v>
+        <v>68495984524</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>201</v>
@@ -15742,7 +15763,7 @@
       </c>
       <c r="I3" s="43">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>115052134680.38498</v>
+        <v>114992105833.51344</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>205</v>
@@ -15787,14 +15808,14 @@
       </c>
       <c r="I4" s="53">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>97884071099.46907</v>
+        <v>97831145924.809357</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="54">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.631848966101845E-2</v>
+        <v>1.6132332540060419E-2</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>212</v>
@@ -15837,14 +15858,14 @@
       </c>
       <c r="I5" s="53">
         <f>I4+G5-G6</f>
-        <v>82660071099.46907</v>
+        <v>82607145924.809357</v>
       </c>
       <c r="J5" s="50" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="56" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>168.12</v>
+        <v>170.06</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>219</v>
@@ -15862,7 +15883,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>3.319343137254902</v>
+        <v>3.3576463001960786</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>221</v>
@@ -15890,14 +15911,14 @@
       </c>
       <c r="I6" s="61">
         <f>N25</f>
-        <v>6.3736352110117037E-2</v>
+        <v>6.3756573485596033E-2</v>
       </c>
       <c r="J6" s="52" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="62">
         <f>I5/G4</f>
-        <v>215.56632715381076</v>
+        <v>215.42830542985604</v>
       </c>
       <c r="L6" s="63" t="s">
         <v>225</v>
@@ -15915,14 +15936,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="66">
         <f>O20/F12</f>
-        <v>27.854627725215959</v>
+        <v>28.176052868778282</v>
       </c>
       <c r="B7" s="67" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="68">
         <f>F14/A3</f>
-        <v>3.1765675349186145E-2</v>
+        <v>3.1403300718253355E-2</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>228</v>
@@ -15949,7 +15970,7 @@
       </c>
       <c r="K7" s="75">
         <f>K6/K5-1</f>
-        <v>0.28221703041762281</v>
+        <v>0.26677822785990846</v>
       </c>
       <c r="L7" s="76" t="s">
         <v>231</v>
@@ -16254,7 +16275,7 @@
       </c>
       <c r="O14" s="94">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5579999999999996E-2</v>
+        <v>4.5080000000000002E-2</v>
       </c>
       <c r="P14" s="46"/>
     </row>
@@ -16304,7 +16325,7 @@
       </c>
       <c r="O15" s="98" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.71779999999999999</v>
+        <v>0.71930000000000005</v>
       </c>
       <c r="P15" s="46"/>
     </row>
@@ -16359,7 +16380,7 @@
       </c>
       <c r="O17" s="105">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.3157876000000011E-2</v>
+        <v>7.3075156000000002E-2</v>
       </c>
       <c r="P17" s="46"/>
     </row>
@@ -16434,7 +16455,7 @@
       </c>
       <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>67714600000</v>
+        <v>68495984524</v>
       </c>
       <c r="P20" s="46"/>
     </row>
@@ -16456,7 +16477,7 @@
       </c>
       <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>83082600000</v>
+        <v>83863984524</v>
       </c>
       <c r="P21" s="46"/>
     </row>
@@ -16479,7 +16500,7 @@
       </c>
       <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>0.18497254539458322</v>
+        <v>0.18324910373894793</v>
       </c>
       <c r="P22" s="46"/>
     </row>
@@ -16502,7 +16523,7 @@
       </c>
       <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.81502745460541681</v>
+        <v>0.81675089626105202</v>
       </c>
       <c r="P23" s="46"/>
     </row>
@@ -16542,7 +16563,7 @@
       <c r="M25" s="85"/>
       <c r="N25" s="113">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.3736352110117037E-2</v>
+        <v>6.3756573485596033E-2</v>
       </c>
       <c r="O25" s="114"/>
       <c r="P25" s="46"/>

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFA6F79-0F7A-404B-83EF-C624C2351E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93079F5-B5D1-CC49-B4FD-5B62912378AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="251">
   <si>
     <t>2010 Y</t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +996,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1121,57 +1130,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
@@ -1179,32 +1217,108 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1328,20 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1287,125 +1414,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1431,10 +1442,10 @@
     <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1443,74 +1454,35 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1518,20 +1490,167 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1586,7 +1705,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.3360000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1725,11 +1844,11 @@
     <v>Powered by Refinitiv</v>
     <v>173.71</v>
     <v>148.31</v>
-    <v>0.71930000000000005</v>
-    <v>-0.21</v>
-    <v>-1.2330000000000002E-3</v>
-    <v>0.04</v>
-    <v>2.352E-4</v>
+    <v>0.70479999999999998</v>
+    <v>7.4999999999999997E-2</v>
+    <v>4.4200000000000001E-4</v>
+    <v>0.46</v>
+    <v>2.7100000000000002E-3</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -1737,25 +1856,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>170.36</v>
+    <v>170</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45239.914026712497</v>
+    <v>45259.910662175782</v>
     <v>0</v>
-    <v>169.43</v>
-    <v>68495984524</v>
+    <v>168.85</v>
+    <v>68373138027</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>170.13</v>
-    <v>30.056699999999999</v>
-    <v>170.27</v>
-    <v>170.06</v>
-    <v>170.1</v>
+    <v>169.66</v>
+    <v>29.8764</v>
+    <v>169.68</v>
+    <v>169.755</v>
+    <v>170.2</v>
     <v>402775400</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>1360644</v>
-    <v>1617981</v>
+    <v>1305838</v>
+    <v>1636273</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -15683,1734 +15802,1919 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A525FE4D-10C8-4942-ABD3-767141393710}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="1">
+    <row r="1" spans="1:19" s="63" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+    </row>
+    <row r="2" spans="1:19" s="63" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+    </row>
+    <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>68495984524</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>68373138027</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="67">
         <f>Financials!O8*0.01</f>
         <v>0.37460000000000004</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="67">
         <f>SUM(C11:E11)/3</f>
         <v>8.7161767766231232E-2</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="68" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="69">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-9.5934384919563742E-3</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="70">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>114992105833.51344</v>
-      </c>
-      <c r="J3" s="39" t="s">
+        <v>117691747221.83813</v>
+      </c>
+      <c r="J3" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="117" t="s">
+      <c r="K3" s="72">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>1.6161317615167002E-2</v>
+      </c>
+      <c r="L3" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="46"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="O3" s="100"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+    </row>
+    <row r="4" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="74">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-15224000000</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="76">
         <f>Financials!O17*0.01</f>
         <v>0.17600000000000002</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="76">
         <f>SUM(C13:E13)/3</f>
         <v>0.11403032705819723</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="78">
         <f>A5*(1+(5*G3))</f>
         <v>383455394.87013435</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="53">
+      <c r="I4" s="79">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>97831145924.809357</v>
-      </c>
-      <c r="J4" s="50" t="s">
+        <v>100211443192.37047</v>
+      </c>
+      <c r="J4" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="54">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.6132332540060419E-2</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="119" t="s">
+      <c r="K4" s="80" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>4.4200000000000001E-4</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" cm="1">
+      <c r="O4" s="102"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+    </row>
+    <row r="5" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="74" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>402775400</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="76">
         <f>Financials!O34*0.01</f>
         <v>0.1142</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="76">
         <f>SUM(C15:E15)/3</f>
         <v>-6.6339553677052798E-4</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="78">
         <f>Financials!O56</f>
         <v>144000000</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="53">
+      <c r="I5" s="79">
         <f>I4+G5-G6</f>
-        <v>82607145924.809357</v>
-      </c>
-      <c r="J5" s="50" t="s">
+        <v>84987443192.370468</v>
+      </c>
+      <c r="J5" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="56" cm="1">
+      <c r="K5" s="83" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>170.06</v>
-      </c>
-      <c r="L5" s="39" t="s">
+        <v>169.755</v>
+      </c>
+      <c r="L5" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="57" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="104">
         <f>Financials!O21</f>
         <v>445000000</v>
       </c>
-      <c r="P5" s="46"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59">
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+    </row>
+    <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="85">
         <f>O20/F10</f>
-        <v>3.3576463001960786</v>
-      </c>
-      <c r="B6" s="48" t="s">
+        <v>3.3516244130882353</v>
+      </c>
+      <c r="B6" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="76">
         <f>Financials!O190</f>
         <v>9.2279383547275357E-2</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="76">
         <f>Financials!O33/Financials!O126</f>
         <v>0.32996535796766746</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="78">
         <f>Financials!O96+Financials!O105</f>
         <v>15368000000</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="86">
         <f>N25</f>
-        <v>6.3756573485596033E-2</v>
-      </c>
-      <c r="J6" s="52" t="s">
+        <v>6.2867565952602691E-2</v>
+      </c>
+      <c r="J6" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="87">
         <f>I5/G4</f>
-        <v>215.42830542985604</v>
-      </c>
-      <c r="L6" s="63" t="s">
+        <v>221.63579996352209</v>
+      </c>
+      <c r="L6" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="64" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="65">
+      <c r="O6" s="104">
         <f>Financials!O96</f>
         <v>513000000</v>
       </c>
-      <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66">
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+    </row>
+    <row r="7" spans="1:19" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
         <f>O20/F12</f>
-        <v>28.176052868778282</v>
-      </c>
-      <c r="B7" s="67" t="s">
+        <v>28.125519550390784</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="91">
         <f>F14/A3</f>
-        <v>3.1403300718253355E-2</v>
-      </c>
-      <c r="D7" s="69" t="s">
+        <v>3.1459723249071696E-2</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="92">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.1185078040904198</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="93">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>2.2182448036951503</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="95">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="75">
+      <c r="K7" s="97">
         <f>K6/K5-1</f>
-        <v>0.26677822785990846</v>
-      </c>
-      <c r="L7" s="76" t="s">
+        <v>0.30562163095945394</v>
+      </c>
+      <c r="L7" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="64" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="104">
         <f>Financials!O105</f>
         <v>14855000000</v>
       </c>
-      <c r="P7" s="46"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="78" t="s">
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+    </row>
+    <row r="8" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="79">
+      <c r="O8" s="106">
         <f>O5/(O6+O7)</f>
         <v>2.8956272774596566E-2</v>
       </c>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81">
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+    </row>
+    <row r="9" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41">
         <v>2019</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="41">
         <v>2020</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="41">
         <v>2021</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="41">
         <v>2022</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="42">
         <v>2023</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="43">
         <v>2024</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="43">
         <v>2025</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="43">
         <v>2026</v>
       </c>
-      <c r="J9" s="83">
+      <c r="J9" s="43">
         <v>2027</v>
       </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="64" t="s">
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="104">
         <f>Financials!O25</f>
         <v>692000000</v>
       </c>
-      <c r="P9" s="46"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="86" t="s">
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+    </row>
+    <row r="10" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="47">
         <v>15455000000</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="47">
         <v>15218000000</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="47">
         <v>17931000000</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="47">
         <v>19698000000</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="48">
         <v>20400000000</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="47">
         <v>21551000000</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="47">
         <v>22800000000</v>
       </c>
-      <c r="I10" s="87">
+      <c r="I10" s="47">
         <v>24343000000</v>
       </c>
-      <c r="J10" s="87">
+      <c r="J10" s="47">
         <v>25764000000</v>
       </c>
-      <c r="K10" s="89" t="s">
+      <c r="K10" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="64" t="s">
+      <c r="N10" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="104">
         <f>Financials!O24</f>
         <v>2976000000</v>
       </c>
-      <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91">
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+    </row>
+    <row r="11" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-1.5334843092850159E-2</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="51">
         <f t="shared" si="0"/>
         <v>0.17827572611381259</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="51">
         <f t="shared" si="0"/>
         <v>9.8544420277731248E-2</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="52">
         <f t="shared" si="0"/>
         <v>3.5638135851355557E-2</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="51">
         <f t="shared" si="0"/>
         <v>5.6421568627450958E-2</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="51">
         <f t="shared" si="0"/>
         <v>5.7955547306389521E-2</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="51">
         <f t="shared" si="0"/>
         <v>6.7675438596491277E-2</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="51">
         <f t="shared" si="0"/>
         <v>5.8374070574703119E-2</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="53">
         <f>SUM(F11:J11)/5</f>
         <v>5.5212952191278086E-2</v>
       </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="64" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="94">
+      <c r="O11" s="107">
         <f>O9/O10</f>
         <v>0.2325268817204301</v>
       </c>
-      <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="86" t="s">
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+    </row>
+    <row r="12" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="87">
+      <c r="B12" s="47">
         <v>1670000000</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="47">
         <v>1496000000</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="47">
         <v>1816000000</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="47">
         <v>2238000000</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="48">
         <v>2431000000</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="47">
         <v>2685000000</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="47">
         <v>3005000000</v>
       </c>
-      <c r="I12" s="87">
+      <c r="I12" s="47">
         <v>3460000000</v>
       </c>
-      <c r="J12" s="87">
+      <c r="J12" s="47">
         <v>3654000000</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="95" t="s">
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="96">
+      <c r="O12" s="107">
         <f>O8*(1-O11)</f>
         <v>2.222316096007344E-2</v>
       </c>
-      <c r="P12" s="46"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91">
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+    </row>
+    <row r="13" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.10419161676646704</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="51">
         <f t="shared" si="1"/>
         <v>0.21390374331550799</v>
       </c>
-      <c r="E13" s="91">
+      <c r="E13" s="51">
         <f t="shared" si="1"/>
         <v>0.23237885462555075</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="52">
         <f t="shared" si="1"/>
         <v>8.6237712243074194E-2</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="51">
         <f t="shared" si="1"/>
         <v>0.10448375154257517</v>
       </c>
-      <c r="H13" s="91">
+      <c r="H13" s="51">
         <f t="shared" si="1"/>
         <v>0.11918063314711369</v>
       </c>
-      <c r="I13" s="91">
+      <c r="I13" s="51">
         <f t="shared" si="1"/>
         <v>0.1514143094841931</v>
       </c>
-      <c r="J13" s="91">
+      <c r="J13" s="51">
         <f t="shared" si="1"/>
         <v>5.6069364161849711E-2</v>
       </c>
-      <c r="K13" s="93">
+      <c r="K13" s="53">
         <f>SUM(F13:J13)/5</f>
         <v>0.10347715411576117</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="119" t="s">
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="120"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="86" t="s">
+      <c r="O13" s="102"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+    </row>
+    <row r="14" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="87">
+      <c r="B14" s="47">
         <v>2382261758</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="47">
         <v>2106868991</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="47">
         <v>2716335036</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="47">
         <v>2239171350</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="48">
         <v>2151000000</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="47">
         <v>2587000000</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="47">
         <v>3305000000</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I14" s="47">
         <v>4050000000</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="47">
         <v>4348000000</v>
       </c>
-      <c r="K14" s="89" t="s">
+      <c r="K14" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="64" t="s">
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="94">
+      <c r="O14" s="107">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
-      </c>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="97"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91">
+        <v>4.3360000000000003E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+    </row>
+    <row r="15" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51">
         <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
         <v>-0.11560138850199353</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="51">
         <f t="shared" si="2"/>
         <v>0.28927572032408344</v>
       </c>
-      <c r="E15" s="91">
+      <c r="E15" s="51">
         <f t="shared" si="2"/>
         <v>-0.1756645184324015</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="52">
         <f t="shared" si="2"/>
         <v>-3.9376776591929841E-2</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="51">
         <f t="shared" si="2"/>
         <v>0.20269642026964196</v>
       </c>
-      <c r="H15" s="91">
+      <c r="H15" s="51">
         <f t="shared" si="2"/>
         <v>0.27754155392346358</v>
       </c>
-      <c r="I15" s="91">
+      <c r="I15" s="51">
         <f t="shared" si="2"/>
         <v>0.22541603630862328</v>
       </c>
-      <c r="J15" s="91">
+      <c r="J15" s="51">
         <f t="shared" si="2"/>
         <v>7.3580246913580227E-2</v>
       </c>
-      <c r="K15" s="93">
+      <c r="K15" s="53">
         <f>SUM(F15:J15)/5</f>
         <v>0.14797149616467584</v>
       </c>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="64" t="s">
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="98" cm="1">
+      <c r="O15" s="108" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.71930000000000005</v>
-      </c>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="86" t="s">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+    </row>
+    <row r="16" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="99">
+      <c r="B16" s="55">
         <v>0.10042298716452742</v>
       </c>
-      <c r="C16" s="99">
+      <c r="C16" s="55">
         <v>8.7401241534988711E-2</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D16" s="55">
         <v>0.10801958014709463</v>
       </c>
-      <c r="E16" s="99">
+      <c r="E16" s="55">
         <v>0.11767667521054559</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="64" t="s">
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="94">
+      <c r="O16" s="107">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="104" t="s">
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+    </row>
+    <row r="17" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="105">
+      <c r="O17" s="110">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.3075156000000002E-2</v>
-      </c>
-      <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="119" t="s">
+        <v>7.2003072000000001E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+    </row>
+    <row r="18" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="120"/>
-      <c r="P18" s="46"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="str" cm="1">
+      <c r="O18" s="102"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+    </row>
+    <row r="19" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="121" cm="1">
+      <c r="B19" s="61"/>
+      <c r="C19" s="64" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1995</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="64" t="s">
+      <c r="D19" s="64"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="111">
         <f>O6+O7</f>
         <v>15368000000</v>
       </c>
-      <c r="P19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="str" cm="1">
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+    </row>
+    <row r="20" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="64" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="107" cm="1">
+      <c r="O20" s="111" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>68495984524</v>
-      </c>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="64" t="s">
+        <v>68373138027</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+    </row>
+    <row r="21" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="107">
+      <c r="O21" s="111">
         <f>O19+O20</f>
-        <v>83863984524</v>
-      </c>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="78" t="s">
+        <v>83741138027</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+    </row>
+    <row r="22" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="108">
+      <c r="O22" s="112">
         <f>(O19/O21)</f>
-        <v>0.18324910373894793</v>
-      </c>
-      <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="104" t="s">
+        <v>0.1835179263392028</v>
+      </c>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+    </row>
+    <row r="23" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="109">
+      <c r="O23" s="113">
         <f>O20/O21</f>
-        <v>0.81675089626105202</v>
-      </c>
-      <c r="P23" s="46"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="111" t="s">
+        <v>0.81648207366079717</v>
+      </c>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+    </row>
+    <row r="24" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="112"/>
-      <c r="P24" s="46"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="113">
+      <c r="O24" s="115"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+    </row>
+    <row r="25" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.3756573485596033E-2</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="46"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="85"/>
-      <c r="N37" s="85"/>
-      <c r="O37" s="85"/>
-      <c r="P37" s="85"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="85"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="85"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="85"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="85"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="85"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="85"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="85"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="85"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="85"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="85"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="85"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
+        <v>6.2867565952602691E-2</v>
+      </c>
+      <c r="O25" s="117"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+    </row>
+    <row r="26" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+    </row>
+    <row r="27" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+    </row>
+    <row r="28" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+    </row>
+    <row r="29" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+    </row>
+    <row r="30" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="38"/>
+      <c r="R43" s="38"/>
+      <c r="S43" s="38"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="45"/>
+      <c r="O44" s="45"/>
+      <c r="P44" s="45"/>
+      <c r="Q44" s="38"/>
+      <c r="R44" s="38"/>
+      <c r="S44" s="38"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="38"/>
+      <c r="S45" s="38"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="38"/>
+      <c r="S47" s="38"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="38"/>
+      <c r="S48" s="38"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="38"/>
+      <c r="R50" s="38"/>
+      <c r="S50" s="38"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38"/>
+      <c r="S51" s="38"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="38"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="38"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="38"/>
+      <c r="S54" s="38"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="38"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="38"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="38"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="38"/>
+      <c r="R57" s="38"/>
+      <c r="S57" s="38"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="38"/>
+      <c r="R58" s="38"/>
+      <c r="S58" s="38"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+      <c r="R62" s="38"/>
+      <c r="S62" s="38"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Industrials/Waste Management.xlsx
+++ b/Industrials/Waste Management.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Industrials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93079F5-B5D1-CC49-B4FD-5B62912378AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C496EF6-86DD-9445-B397-AA836C045E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1478,21 +1478,6 @@
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -1595,18 +1580,6 @@
     <xf numFmtId="9" fontId="17" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1640,6 +1613,9 @@
     <xf numFmtId="10" fontId="20" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1651,6 +1627,30 @@
     </xf>
     <xf numFmtId="10" fontId="21" fillId="9" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1683,11 +1683,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1705,7 +1708,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1717,6 +1720,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1842,13 +1848,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>173.71</v>
+    <v>174.8</v>
     <v>148.31</v>
-    <v>0.70479999999999998</v>
-    <v>7.4999999999999997E-2</v>
-    <v>4.4200000000000001E-4</v>
-    <v>0.46</v>
-    <v>2.7100000000000002E-3</v>
+    <v>0.71240000000000003</v>
+    <v>-0.34</v>
+    <v>-1.967E-3</v>
+    <v>0.38</v>
+    <v>2.2030000000000001E-3</v>
     <v>USD</v>
     <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
     <v>49500</v>
@@ -1856,25 +1862,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>800 Capitol Street, Ste 3000, HOUSTON, TX, 77002 US</v>
-    <v>170</v>
+    <v>173.24</v>
     <v>Professional &amp; Commercial Services</v>
     <v>Stock</v>
-    <v>45259.910662175782</v>
+    <v>45269.01180013828</v>
     <v>0</v>
-    <v>168.85</v>
-    <v>68373138027</v>
+    <v>171.15</v>
+    <v>69478756500</v>
     <v>WASTE MANAGEMENT, INC.</v>
     <v>WASTE MANAGEMENT, INC.</v>
-    <v>169.66</v>
-    <v>29.8764</v>
-    <v>169.68</v>
-    <v>169.755</v>
-    <v>170.2</v>
+    <v>172.38</v>
+    <v>30.547999999999998</v>
+    <v>172.84</v>
+    <v>172.5</v>
+    <v>172.88</v>
     <v>402775400</v>
     <v>WM</v>
     <v>WASTE MANAGEMENT, INC. (XNYS:WM)</v>
-    <v>1305838</v>
-    <v>1636273</v>
+    <v>1638504</v>
+    <v>1495186</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2039,9 +2045,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15805,7 +15811,7 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15813,198 +15819,198 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="63" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="e" vm="1">
+    <row r="1" spans="1:19" s="111" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-    </row>
-    <row r="2" spans="1:19" s="63" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+    </row>
+    <row r="2" spans="1:19" s="111" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
     </row>
     <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" cm="1">
+      <c r="A3" s="60" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>68373138027</v>
-      </c>
-      <c r="B3" s="66" t="s">
+        <v>69478756500</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="62">
         <f>Financials!O8*0.01</f>
         <v>0.37460000000000004</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="62">
         <f>SUM(C11:E11)/3</f>
         <v>8.7161767766231232E-2</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="69">
+      <c r="G3" s="64">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-9.5934384919563742E-3</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="65">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>117691747221.83813</v>
-      </c>
-      <c r="J3" s="71" t="s">
+        <v>118110882262.38271</v>
+      </c>
+      <c r="J3" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="67">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.6161317615167002E-2</v>
-      </c>
-      <c r="L3" s="73" t="s">
+        <v>1.5904141865290867E-2</v>
+      </c>
+      <c r="L3" s="68" t="s">
         <v>212</v>
       </c>
       <c r="M3" s="38"/>
-      <c r="N3" s="99" t="s">
+      <c r="N3" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="100"/>
+      <c r="O3" s="113"/>
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38"/>
       <c r="S3" s="38"/>
     </row>
     <row r="4" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74">
+      <c r="A4" s="69">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-15224000000</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="71">
         <f>Financials!O17*0.01</f>
         <v>0.17600000000000002</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="76">
+      <c r="E4" s="71">
         <f>SUM(C13:E13)/3</f>
         <v>0.11403032705819723</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="73">
         <f>A5*(1+(5*G3))</f>
         <v>383455394.87013435</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="74">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>100211443192.37047</v>
-      </c>
-      <c r="J4" s="77" t="s">
+        <v>100581020583.17094</v>
+      </c>
+      <c r="J4" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="80" cm="1">
+      <c r="K4" s="75" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.4200000000000001E-4</v>
-      </c>
-      <c r="L4" s="81" t="s">
+        <v>-1.967E-3</v>
+      </c>
+      <c r="L4" s="76" t="s">
         <v>250</v>
       </c>
       <c r="M4" s="38"/>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="114" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="102"/>
+      <c r="O4" s="115"/>
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38"/>
       <c r="S4" s="38"/>
     </row>
     <row r="5" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" cm="1">
+      <c r="A5" s="69" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>402775400</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="71">
         <f>Financials!O34*0.01</f>
         <v>0.1142</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="71">
         <f>SUM(C15:E15)/3</f>
         <v>-6.6339553677052798E-4</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="73">
         <f>Financials!O56</f>
         <v>144000000</v>
       </c>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="74">
         <f>I4+G5-G6</f>
-        <v>84987443192.370468</v>
-      </c>
-      <c r="J5" s="77" t="s">
+        <v>85357020583.170944</v>
+      </c>
+      <c r="J5" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="83" cm="1">
+      <c r="K5" s="78" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>169.755</v>
-      </c>
-      <c r="L5" s="84" t="s">
+        <v>172.5</v>
+      </c>
+      <c r="L5" s="79" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="38"/>
-      <c r="N5" s="103" t="s">
+      <c r="N5" s="94" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="104">
+      <c r="O5" s="95">
         <f>Financials!O21</f>
         <v>445000000</v>
       </c>
@@ -16014,53 +16020,53 @@
       <c r="S5" s="38"/>
     </row>
     <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85">
+      <c r="A6" s="80">
         <f>O20/F10</f>
-        <v>3.3516244130882353</v>
-      </c>
-      <c r="B6" s="75" t="s">
+        <v>3.4058213970588236</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="76">
+      <c r="C6" s="71">
         <f>Financials!O190</f>
         <v>9.2279383547275357E-2</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="71">
         <f>Financials!O33/Financials!O126</f>
         <v>0.32996535796766746</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="73">
         <f>Financials!O96+Financials!O105</f>
         <v>15368000000</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="81">
         <f>N25</f>
-        <v>6.2867565952602691E-2</v>
-      </c>
-      <c r="J6" s="77" t="s">
+        <v>6.273318693953589E-2</v>
+      </c>
+      <c r="J6" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="87">
+      <c r="K6" s="82">
         <f>I5/G4</f>
-        <v>221.63579996352209</v>
-      </c>
-      <c r="L6" s="88" t="s">
+        <v>222.59960799894074</v>
+      </c>
+      <c r="L6" s="83" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="38"/>
-      <c r="N6" s="103" t="s">
+      <c r="N6" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="104">
+      <c r="O6" s="95">
         <f>Financials!O96</f>
         <v>513000000</v>
       </c>
@@ -16070,52 +16076,52 @@
       <c r="S6" s="38"/>
     </row>
     <row r="7" spans="1:19" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
+      <c r="A7" s="84">
         <f>O20/F12</f>
-        <v>28.125519550390784</v>
-      </c>
-      <c r="B7" s="90" t="s">
+        <v>28.58031941587824</v>
+      </c>
+      <c r="B7" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="86">
         <f>F14/A3</f>
-        <v>3.1459723249071696E-2</v>
-      </c>
-      <c r="D7" s="90" t="s">
+        <v>3.0959103305195163E-2</v>
+      </c>
+      <c r="D7" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="87">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.1185078040904198</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="88">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>2.2182448036951503</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="95">
+      <c r="I7" s="90">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="97">
+      <c r="K7" s="92">
         <f>K6/K5-1</f>
-        <v>0.30562163095945394</v>
-      </c>
-      <c r="L7" s="98" t="s">
+        <v>0.29043251013878679</v>
+      </c>
+      <c r="L7" s="93" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="38"/>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="94" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="95">
         <f>Financials!O105</f>
         <v>14855000000</v>
       </c>
@@ -16138,10 +16144,10 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="105" t="s">
+      <c r="N8" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="106">
+      <c r="O8" s="97">
         <f>O5/(O6+O7)</f>
         <v>2.8956272774596566E-2</v>
       </c>
@@ -16182,10 +16188,10 @@
       <c r="K9" s="44"/>
       <c r="L9" s="45"/>
       <c r="M9" s="45"/>
-      <c r="N9" s="103" t="s">
+      <c r="N9" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="104">
+      <c r="O9" s="95">
         <f>Financials!O25</f>
         <v>692000000</v>
       </c>
@@ -16228,10 +16234,10 @@
       <c r="K10" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="103" t="s">
+      <c r="N10" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="104">
+      <c r="O10" s="95">
         <f>Financials!O24</f>
         <v>2976000000</v>
       </c>
@@ -16281,10 +16287,10 @@
       </c>
       <c r="L11" s="45"/>
       <c r="M11" s="45"/>
-      <c r="N11" s="103" t="s">
+      <c r="N11" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="107">
+      <c r="O11" s="98">
         <f>O9/O10</f>
         <v>0.2325268817204301</v>
       </c>
@@ -16329,10 +16335,10 @@
       </c>
       <c r="L12" s="45"/>
       <c r="M12" s="45"/>
-      <c r="N12" s="103" t="s">
+      <c r="N12" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="107">
+      <c r="O12" s="98">
         <f>O8*(1-O11)</f>
         <v>2.222316096007344E-2</v>
       </c>
@@ -16382,10 +16388,10 @@
       </c>
       <c r="L13" s="45"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="101" t="s">
+      <c r="N13" s="114" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="102"/>
+      <c r="O13" s="115"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
@@ -16427,12 +16433,12 @@
       </c>
       <c r="L14" s="45"/>
       <c r="M14" s="45"/>
-      <c r="N14" s="103" t="s">
+      <c r="N14" s="94" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="107">
+      <c r="O14" s="98">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
@@ -16480,12 +16486,12 @@
       </c>
       <c r="L15" s="45"/>
       <c r="M15" s="45"/>
-      <c r="N15" s="103" t="s">
+      <c r="N15" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="108" cm="1">
+      <c r="O15" s="99" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.70479999999999998</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
@@ -16516,10 +16522,10 @@
       <c r="K16" s="58"/>
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
-      <c r="N16" s="103" t="s">
+      <c r="N16" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="107">
+      <c r="O16" s="98">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="38"/>
@@ -16541,12 +16547,12 @@
       <c r="K17" s="45"/>
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
-      <c r="N17" s="109" t="s">
+      <c r="N17" s="100" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="110">
+      <c r="O17" s="101">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.2003072000000001E-2</v>
+        <v>7.1693595999999998E-2</v>
       </c>
       <c r="P17" s="38"/>
       <c r="Q17" s="38"/>
@@ -16567,27 +16573,27 @@
       <c r="K18" s="45"/>
       <c r="L18" s="45"/>
       <c r="M18" s="45"/>
-      <c r="N18" s="101" t="s">
+      <c r="N18" s="114" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="102"/>
+      <c r="O18" s="115"/>
       <c r="P18" s="38"/>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
     </row>
     <row r="19" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61" t="str" cm="1">
+      <c r="A19" s="116" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Professional &amp; Commercial Services</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="64" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B19" s="116"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117" cm="1">
+        <f t="array" ref="D19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1995</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="60"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
@@ -16596,10 +16602,10 @@
       <c r="K19" s="45"/>
       <c r="L19" s="45"/>
       <c r="M19" s="45"/>
-      <c r="N19" s="103" t="s">
+      <c r="N19" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="111">
+      <c r="O19" s="102">
         <f>O6+O7</f>
         <v>15368000000</v>
       </c>
@@ -16609,14 +16615,14 @@
       <c r="S19" s="38"/>
     </row>
     <row r="20" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="str" cm="1">
+      <c r="A20" s="105" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Waste Management, Inc. (WM) is a holding company. The Company is a provider of waste management environmental solutions. The Company, through its subsidiaries, provides collection, recycling and disposal services to millions of residential, commercial, industrial and municipal customers throughout the United States and Canada. Its Solid Waste operating segments include East Tier and West Tier. The East Tier primarily consists of geographic areas located in the Eastern United States, the Great Lakes region, and substantially all of Canada. The West Tier primarily includes geographic areas located in the Western United States, including the upper Midwest region, and British Columbia, Canada. Through its subsidiaries, including its Waste Management Renewable Energy (WM Renewable Energy) business, the Company is also a developer, operator and owner of landfill gas-to-energy facilities in the United States and Canada that produce renewable electricity and renewable natural gas.</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
@@ -16625,12 +16631,12 @@
       <c r="K20" s="45"/>
       <c r="L20" s="45"/>
       <c r="M20" s="45"/>
-      <c r="N20" s="103" t="s">
+      <c r="N20" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="111" cm="1">
+      <c r="O20" s="102" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>68373138027</v>
+        <v>69478756500</v>
       </c>
       <c r="P20" s="38"/>
       <c r="Q20" s="38"/>
@@ -16638,11 +16644,11 @@
       <c r="S20" s="38"/>
     </row>
     <row r="21" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
@@ -16650,12 +16656,12 @@
       <c r="J21" s="45"/>
       <c r="K21" s="45"/>
       <c r="M21" s="45"/>
-      <c r="N21" s="103" t="s">
+      <c r="N21" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="111">
+      <c r="O21" s="102">
         <f>O19+O20</f>
-        <v>83741138027</v>
+        <v>84846756500</v>
       </c>
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
@@ -16663,11 +16669,11 @@
       <c r="S21" s="38"/>
     </row>
     <row r="22" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
@@ -16676,12 +16682,12 @@
       <c r="K22" s="45"/>
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
-      <c r="N22" s="105" t="s">
+      <c r="N22" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="112">
+      <c r="O22" s="103">
         <f>(O19/O21)</f>
-        <v>0.1835179263392028</v>
+        <v>0.18112654665826855</v>
       </c>
       <c r="P22" s="38"/>
       <c r="Q22" s="38"/>
@@ -16689,11 +16695,11 @@
       <c r="S22" s="38"/>
     </row>
     <row r="23" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
@@ -16702,12 +16708,12 @@
       <c r="K23" s="45"/>
       <c r="L23" s="45"/>
       <c r="M23" s="45"/>
-      <c r="N23" s="109" t="s">
+      <c r="N23" s="100" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="113">
+      <c r="O23" s="104">
         <f>O20/O21</f>
-        <v>0.81648207366079717</v>
+        <v>0.81887345334173145</v>
       </c>
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
@@ -16715,11 +16721,11 @@
       <c r="S23" s="38"/>
     </row>
     <row r="24" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
@@ -16728,21 +16734,21 @@
       <c r="K24" s="45"/>
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
-      <c r="N24" s="114" t="s">
+      <c r="N24" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="115"/>
+      <c r="O24" s="107"/>
       <c r="P24" s="38"/>
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
     </row>
     <row r="25" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
@@ -16751,22 +16757,22 @@
       <c r="K25" s="45"/>
       <c r="L25" s="45"/>
       <c r="M25" s="45"/>
-      <c r="N25" s="116">
+      <c r="N25" s="108">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>6.2867565952602691E-2</v>
-      </c>
-      <c r="O25" s="117"/>
+        <v>6.273318693953589E-2</v>
+      </c>
+      <c r="O25" s="109"/>
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
       <c r="S25" s="38"/>
     </row>
     <row r="26" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
       <c r="F26" s="45"/>
       <c r="G26" s="45"/>
       <c r="H26" s="45"/>
@@ -16783,11 +16789,11 @@
       <c r="S26" s="38"/>
     </row>
     <row r="27" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="A27" s="105"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
@@ -17726,8 +17732,8 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:WM/explorer/revenue_proj" xr:uid="{584BF70B-7025-174C-8450-F22926A647AD}"/>
